--- a/homework/hw5/SuperPlanner-Requirements.xlsx
+++ b/homework/hw5/SuperPlanner-Requirements.xlsx
@@ -8,23 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myFMI\3rd year\sem2\SRA\homework\hw5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4208601-E584-47C0-B62E-C642344AC11E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6371DD8-4081-46DE-8FCA-C304489B91C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2100" yWindow="1215" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements" sheetId="1" r:id="rId1"/>
-    <sheet name="Matrix" sheetId="2" r:id="rId2"/>
+    <sheet name="Matrix" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Requirements!$B$4:$O$53</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Requirements!$B$4:$O$54</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="217">
   <si>
     <t>ID</t>
   </si>
@@ -342,319 +342,345 @@
     <t>Инструмент за известяване</t>
   </si>
   <si>
-    <t xml:space="preserve">Всеки потребител трябва да може да избира по какъв начин да бъде известяван:
+    <t>REQ-12.5</t>
+  </si>
+  <si>
+    <t>Промяна на основна информация за услуга</t>
+  </si>
+  <si>
+    <t>REQ-13</t>
+  </si>
+  <si>
+    <t>Преглед на заявки за час</t>
+  </si>
+  <si>
+    <t>REQ-13.1</t>
+  </si>
+  <si>
+    <t>Одобрение на час</t>
+  </si>
+  <si>
+    <t>Изпълнителите на услуги трябва да могат да одобряват заявените от клиентите часове, при което те да се обозначават в графиците и на двете страни.</t>
+  </si>
+  <si>
+    <t>REQ-13.2</t>
+  </si>
+  <si>
+    <t>Верификация на редактиран час</t>
+  </si>
+  <si>
+    <t>При редакция на записан към услуги час, изпълнителят на услуги трябва да бъде известен и да потвърди самата промяна.</t>
+  </si>
+  <si>
+    <t>REQ-14</t>
+  </si>
+  <si>
+    <t>Абониране към платформата</t>
+  </si>
+  <si>
+    <t>Потребителите изпълнители на услуги трябва да могат да се абонират към платформата, което да отключва функционалности за съответния абонамент.</t>
+  </si>
+  <si>
+    <t>REQ-15</t>
+  </si>
+  <si>
+    <t>Сигурност</t>
+  </si>
+  <si>
+    <t>REQ-15.1</t>
+  </si>
+  <si>
+    <t>Мрежова защита</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Системата трябва да бъде подсигурена срещу мрежови атаки, насочени към източванен на съхраняваните данни.
+</t>
+  </si>
+  <si>
+    <t>REQ-15.2</t>
+  </si>
+  <si>
+    <t>Криптиране на данни</t>
+  </si>
+  <si>
+    <t>Системата трябва да използва надеждни технологии за криптиране на пароли и служебна информация.</t>
+  </si>
+  <si>
+    <t>REQ-15.3</t>
+  </si>
+  <si>
+    <t>Утвърдени стандарти</t>
+  </si>
+  <si>
+    <t>Системата трябва да използва утвърдени стандарти за достъп до данните за изграждане на логиката и потребителския интерфейс.</t>
+  </si>
+  <si>
+    <t>REQ-15.4</t>
+  </si>
+  <si>
+    <t>Сигурност на данните</t>
+  </si>
+  <si>
+    <t>Системата трябва да включва мерки за сигурност на данните, които не разрешават пряк неконтролиран от системата достъп на потребител до тях и последващото им копиране и разрушаване на тяхната цялост.</t>
+  </si>
+  <si>
+    <t>REQ-16</t>
+  </si>
+  <si>
+    <t>Безопасност</t>
+  </si>
+  <si>
+    <t>Системата ще работи с лична информация на потребителите, затова е необходимо да се вземат мерки за обезопасяване на данните от неоторизиран достъп, промяна или изтриване.</t>
+  </si>
+  <si>
+    <t>REQ-16.1</t>
+  </si>
+  <si>
+    <t>Лични данни</t>
+  </si>
+  <si>
+    <t>REQ-16.2</t>
+  </si>
+  <si>
+    <t>Оторизация</t>
+  </si>
+  <si>
+    <t>REQ-17</t>
+  </si>
+  <si>
+    <t>Надеждност</t>
+  </si>
+  <si>
+    <t>REQ-17.1</t>
+  </si>
+  <si>
+    <t>Наличност</t>
+  </si>
+  <si>
+    <t>Системата трябва да бъде налична 99% от времето.</t>
+  </si>
+  <si>
+    <t>REQ-17.2</t>
+  </si>
+  <si>
+    <t>Отказоустойчивост</t>
+  </si>
+  <si>
+    <t>При срив в системата, трябва да е гарантирано нейното възстановяване в следващите 24 часа от самия срив.</t>
+  </si>
+  <si>
+    <t>REQ-18</t>
+  </si>
+  <si>
+    <t>Производителност</t>
+  </si>
+  <si>
+    <t>REQ-18.1</t>
+  </si>
+  <si>
+    <t>Натоварване</t>
+  </si>
+  <si>
+    <t>Системата трябва да позволява едновременна работа на не по-малко от 5000 потребителя с възможност за увеличаване на техния брой при необходимост до 10000 без да има осезаемо забавяне на функционалностите ѝ.</t>
+  </si>
+  <si>
+    <t>REQ-18.2</t>
+  </si>
+  <si>
+    <t>Бързодействие</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Всяка заявка към системата трябва да се изпълнява за време не повече от 2 секунди.
+</t>
+  </si>
+  <si>
+    <t>←</t>
+  </si>
+  <si>
+    <t>→</t>
+  </si>
+  <si>
+    <t>REQ-18.2 Бързодействие</t>
+  </si>
+  <si>
+    <t>REQ-18.1 Натоварване</t>
+  </si>
+  <si>
+    <t>REQ-18 Производителност</t>
+  </si>
+  <si>
+    <t>REQ-17.2 Отказоустойчивост</t>
+  </si>
+  <si>
+    <t>REQ-17.1 Наличност</t>
+  </si>
+  <si>
+    <t>REQ-17 Надеждност</t>
+  </si>
+  <si>
+    <t>REQ-16.2 Оторизация</t>
+  </si>
+  <si>
+    <t>REQ-16.1 Лични данни</t>
+  </si>
+  <si>
+    <t>REQ-16 Безопасност</t>
+  </si>
+  <si>
+    <t>REQ-15.4 Сигурност на данните</t>
+  </si>
+  <si>
+    <t>REQ-15.3 Утвърдени стандарти</t>
+  </si>
+  <si>
+    <t>REQ-15.2 Криптиране на данни</t>
+  </si>
+  <si>
+    <t>REQ-15.1 Мрежова защита</t>
+  </si>
+  <si>
+    <t>REQ-15 Сигурност</t>
+  </si>
+  <si>
+    <t>REQ-14 Абониране към платформата</t>
+  </si>
+  <si>
+    <t>REQ-13.2 Верификация на редактиран час</t>
+  </si>
+  <si>
+    <t>REQ-13.1 Одобрение на час</t>
+  </si>
+  <si>
+    <t>REQ-13 Преглед на заявки за час</t>
+  </si>
+  <si>
+    <t>REQ-12.1 Промяна на основна информация на профила</t>
+  </si>
+  <si>
+    <t>REQ-12 Управление на профила</t>
+  </si>
+  <si>
+    <t>REQ-11 Интеграция със EasyPay, PayPal и банки.</t>
+  </si>
+  <si>
+    <t>REQ-10 Известяване за наближаващ ангажимент</t>
+  </si>
+  <si>
+    <t>REQ-9 Интеграция с Google Maps</t>
+  </si>
+  <si>
+    <t>REQ-8.1 Бележки за клиентите</t>
+  </si>
+  <si>
+    <t>REQ-8 Списък с всички записани клиенти</t>
+  </si>
+  <si>
+    <t>REQ-7.1 Редакция на заявен час</t>
+  </si>
+  <si>
+    <t>REQ-7 Заявка на час</t>
+  </si>
+  <si>
+    <t>REQ-6.1 Редакция на графика за клиенти</t>
+  </si>
+  <si>
+    <t>REQ-6 График за клиентите на потребителите изпълнители</t>
+  </si>
+  <si>
+    <t>REQ-5.3 Заключване на ангажименти като повтарящи се</t>
+  </si>
+  <si>
+    <t>REQ-5.2 Бележки към ангажиментите</t>
+  </si>
+  <si>
+    <t>REQ-5.1 Редакция на собствения график</t>
+  </si>
+  <si>
+    <t>REQ-5 График за всеки потребител</t>
+  </si>
+  <si>
+    <t>REQ-4.4 Сортирофка по критерии</t>
+  </si>
+  <si>
+    <t>REQ-4.3 Отваряне на услуга</t>
+  </si>
+  <si>
+    <t>REQ-4.2 Визуализация на намерените услуги в списък</t>
+  </si>
+  <si>
+    <t>REQ-4.1 Филтриране на търсенето</t>
+  </si>
+  <si>
+    <t>REQ-4 Търсене на услуги</t>
+  </si>
+  <si>
+    <t>REQ-3 Излизане от профила</t>
+  </si>
+  <si>
+    <t>REQ-2.2 Възстановяване на парола</t>
+  </si>
+  <si>
+    <t>REQ-2.1 Двустъпкова автентикация при вход</t>
+  </si>
+  <si>
+    <t>REQ-2 Вход в профила</t>
+  </si>
+  <si>
+    <t>REQ-1.2 Регистрация като изпълнител на услуги</t>
+  </si>
+  <si>
+    <t>REQ-1.1 Регистрация като обикновен потребител</t>
+  </si>
+  <si>
+    <t>REQ-1 Регистрация</t>
+  </si>
+  <si>
+    <t>Requirements and Referenced Requirements</t>
+  </si>
+  <si>
+    <t>Потребителите клиенти на бизнеса трябва да могат да редактират своите заявени часове.</t>
+  </si>
+  <si>
+    <t>Всеки регистриран потребител трябва да може да прови промени по своя профил.</t>
+  </si>
+  <si>
+    <t>Всеки изпълнител на услуги трябва да може да променя информацията за своя бизнес (услуга), в това число влизат адрес, описание, работни часове, ценоразпис.</t>
+  </si>
+  <si>
+    <t>REQ-13.3</t>
+  </si>
+  <si>
+    <t>Отхвърляне на час</t>
+  </si>
+  <si>
+    <t>Изпълнителите на услуги трябва да могат да отхвърлят заявените от клиентите часове, при което клиентите трябва да бъдат известени.</t>
+  </si>
+  <si>
+    <t>Всяка оторизация от системата трябва да бъде проследима и за нея да се регистрират данни автоматично и по начин, неподлежащ на корекция или унищожаване.</t>
+  </si>
+  <si>
+    <t>Всеки потребител трябва да може да избира по какъв начин да бъде известяван:
 имейл;
 СМС;
-без известия.
-</t>
-  </si>
-  <si>
-    <t>REQ-12.5</t>
-  </si>
-  <si>
-    <t>Промяна на основна информация за услуга</t>
-  </si>
-  <si>
-    <t>REQ-13</t>
-  </si>
-  <si>
-    <t>Преглед на заявки за час</t>
-  </si>
-  <si>
-    <t>REQ-13.1</t>
-  </si>
-  <si>
-    <t>Одобрение на час</t>
-  </si>
-  <si>
-    <t>Изпълнителите на услуги трябва да могат да одобряват заявените от клиентите часове, при което те да се обозначават в графиците и на двете страни.</t>
-  </si>
-  <si>
-    <t>REQ-13.2</t>
-  </si>
-  <si>
-    <t>Верификация на редактиран час</t>
-  </si>
-  <si>
-    <t>При редакция на записан към услуги час, изпълнителят на услуги трябва да бъде известен и да потвърди самата промяна.</t>
-  </si>
-  <si>
-    <t>REQ-14</t>
-  </si>
-  <si>
-    <t>Абониране към платформата</t>
-  </si>
-  <si>
-    <t>Потребителите изпълнители на услуги трябва да могат да се абонират към платформата, което да отключва функционалности за съответния абонамент.</t>
-  </si>
-  <si>
-    <t>REQ-15</t>
-  </si>
-  <si>
-    <t>Сигурност</t>
-  </si>
-  <si>
-    <t>REQ-15.1</t>
-  </si>
-  <si>
-    <t>Мрежова защита</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Системата трябва да бъде подсигурена срещу мрежови атаки, насочени към източванен на съхраняваните данни.
-</t>
-  </si>
-  <si>
-    <t>REQ-15.2</t>
-  </si>
-  <si>
-    <t>Криптиране на данни</t>
-  </si>
-  <si>
-    <t>Системата трябва да използва надеждни технологии за криптиране на пароли и служебна информация.</t>
-  </si>
-  <si>
-    <t>REQ-15.3</t>
-  </si>
-  <si>
-    <t>Утвърдени стандарти</t>
-  </si>
-  <si>
-    <t>Системата трябва да използва утвърдени стандарти за достъп до данните за изграждане на логиката и потребителския интерфейс.</t>
-  </si>
-  <si>
-    <t>REQ-15.4</t>
-  </si>
-  <si>
-    <t>Сигурност на данните</t>
-  </si>
-  <si>
-    <t>Системата трябва да включва мерки за сигурност на данните, които не разрешават пряк неконтролиран от системата достъп на потребител до тях и последващото им копиране и разрушаване на тяхната цялост.</t>
-  </si>
-  <si>
-    <t>REQ-16</t>
-  </si>
-  <si>
-    <t>Безопасност</t>
-  </si>
-  <si>
-    <t>Системата ще работи с лична информация на потребителите, затова е необходимо да се вземат мерки за обезопасяване на данните от неоторизиран достъп, промяна или изтриване.</t>
-  </si>
-  <si>
-    <t>REQ-16.1</t>
-  </si>
-  <si>
-    <t>Лични данни</t>
-  </si>
-  <si>
-    <t>REQ-16.2</t>
-  </si>
-  <si>
-    <t>Оторизация</t>
-  </si>
-  <si>
-    <t>REQ-17</t>
-  </si>
-  <si>
-    <t>Надеждност</t>
-  </si>
-  <si>
-    <t>REQ-17.1</t>
-  </si>
-  <si>
-    <t>Наличност</t>
-  </si>
-  <si>
-    <t>Системата трябва да бъде налична 99% от времето.</t>
-  </si>
-  <si>
-    <t>REQ-17.2</t>
-  </si>
-  <si>
-    <t>Отказоустойчивост</t>
-  </si>
-  <si>
-    <t>При срив в системата, трябва да е гарантирано нейното възстановяване в следващите 24 часа от самия срив.</t>
-  </si>
-  <si>
-    <t>REQ-18</t>
-  </si>
-  <si>
-    <t>Производителност</t>
-  </si>
-  <si>
-    <t>REQ-18.1</t>
-  </si>
-  <si>
-    <t>Натоварване</t>
-  </si>
-  <si>
-    <t>Системата трябва да позволява едновременна работа на не по-малко от 5000 потребителя с възможност за увеличаване на техния брой при необходимост до 10000 без да има осезаемо забавяне на функционалностите ѝ.</t>
-  </si>
-  <si>
-    <t>REQ-18.2</t>
-  </si>
-  <si>
-    <t>Бързодействие</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Всяка заявка към системата трябва да се изпълнява за време не повече от 2 секунди.
-</t>
-  </si>
-  <si>
-    <t>←</t>
-  </si>
-  <si>
-    <t>→</t>
-  </si>
-  <si>
-    <t>REQ-18.2 Бързодействие</t>
-  </si>
-  <si>
-    <t>REQ-18.1 Натоварване</t>
-  </si>
-  <si>
-    <t>REQ-18 Производителност</t>
-  </si>
-  <si>
-    <t>REQ-17.2 Отказоустойчивост</t>
-  </si>
-  <si>
-    <t>REQ-17.1 Наличност</t>
-  </si>
-  <si>
-    <t>REQ-17 Надеждност</t>
-  </si>
-  <si>
-    <t>REQ-16.2 Оторизация</t>
-  </si>
-  <si>
-    <t>REQ-16.1 Лични данни</t>
-  </si>
-  <si>
-    <t>REQ-16 Безопасност</t>
-  </si>
-  <si>
-    <t>REQ-15.4 Сигурност на данните</t>
-  </si>
-  <si>
-    <t>REQ-15.3 Утвърдени стандарти</t>
-  </si>
-  <si>
-    <t>REQ-15.2 Криптиране на данни</t>
-  </si>
-  <si>
-    <t>REQ-15.1 Мрежова защита</t>
-  </si>
-  <si>
-    <t>REQ-15 Сигурност</t>
-  </si>
-  <si>
-    <t>REQ-14 Абониране към платформата</t>
-  </si>
-  <si>
-    <t>REQ-13.2 Верификация на редактиран час</t>
-  </si>
-  <si>
-    <t>REQ-13.1 Одобрение на час</t>
-  </si>
-  <si>
-    <t>REQ-13 Преглед на заявки за час</t>
-  </si>
-  <si>
-    <t>REQ-12.5 Промяна на основна информация за услуга</t>
-  </si>
-  <si>
-    <t>REQ-12.4 Инструмент за известяване</t>
-  </si>
-  <si>
-    <t>REQ-12.3 Инструмент за двустъпкова автентикация</t>
-  </si>
-  <si>
-    <t>REQ-12.2 Промяна на паролата</t>
-  </si>
-  <si>
-    <t>REQ-12.1 Промяна на основна информация на профила</t>
-  </si>
-  <si>
-    <t>REQ-12 Управление на профила</t>
-  </si>
-  <si>
-    <t>REQ-11 Интеграция със EasyPay, PayPal и банки.</t>
-  </si>
-  <si>
-    <t>REQ-10 Известяване за наближаващ ангажимент</t>
-  </si>
-  <si>
-    <t>REQ-9 Интеграция с Google Maps</t>
-  </si>
-  <si>
-    <t>REQ-8.1 Бележки за клиентите</t>
-  </si>
-  <si>
-    <t>REQ-8 Списък с всички записани клиенти</t>
-  </si>
-  <si>
-    <t>REQ-7.1 Редакция на заявен час</t>
-  </si>
-  <si>
-    <t>REQ-7 Заявка на час</t>
-  </si>
-  <si>
-    <t>REQ-6.1 Редакция на графика за клиенти</t>
-  </si>
-  <si>
-    <t>REQ-6 График за клиентите на потребителите изпълнители</t>
-  </si>
-  <si>
-    <t>REQ-5.3 Заключване на ангажименти като повтарящи се</t>
-  </si>
-  <si>
-    <t>REQ-5.2 Бележки към ангажиментите</t>
-  </si>
-  <si>
-    <t>REQ-5.1 Редакция на собствения график</t>
-  </si>
-  <si>
-    <t>REQ-5 График за всеки потребител</t>
-  </si>
-  <si>
-    <t>REQ-4.4 Сортирофка по критерии</t>
-  </si>
-  <si>
-    <t>REQ-4.3 Отваряне на услуга</t>
-  </si>
-  <si>
-    <t>REQ-4.2 Визуализация на намерените услуги в списък</t>
-  </si>
-  <si>
-    <t>REQ-4.1 Филтриране на търсенето</t>
-  </si>
-  <si>
-    <t>REQ-4 Търсене на услуги</t>
-  </si>
-  <si>
-    <t>REQ-3 Излизане от профила</t>
-  </si>
-  <si>
-    <t>REQ-2.2 Възстановяване на парола</t>
-  </si>
-  <si>
-    <t>REQ-2.1 Двустъпкова автентикация при вход</t>
-  </si>
-  <si>
-    <t>REQ-2 Вход в профила</t>
-  </si>
-  <si>
-    <t>REQ-1.2 Регистрация като изпълнител на услуги</t>
-  </si>
-  <si>
-    <t>REQ-1.1 Регистрация като обикновен потребител</t>
-  </si>
-  <si>
-    <t>REQ-1 Регистрация</t>
-  </si>
-  <si>
-    <t>Requirements and Referenced Requirements</t>
+без известия.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Изпълнителите на услуги трябва да могат да одобряват заявените от клиентите часове, при което те да се обозначават в графиците и на двете страни. </t>
+  </si>
+  <si>
+    <t>REQ-13.3 Отхвърляне на час</t>
+  </si>
+  <si>
+    <t>REQ-12.5 Инструмент за известяване</t>
+  </si>
+  <si>
+    <t>REQ-12.4 Инструмент за двустъпкова автентикация</t>
+  </si>
+  <si>
+    <t>REQ-12.3 Промяна на паролата</t>
+  </si>
+  <si>
+    <t>REQ-12.2 Промяна на основна информация за услуга</t>
   </si>
 </sst>
 </file>
@@ -824,7 +850,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -876,9 +902,6 @@
     <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="14" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -887,6 +910,19 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
@@ -894,7 +930,7 @@
     <cellStyle name="Normal 2" xfId="2" xr:uid="{DFE5EF2D-0E48-41C4-86E8-5546AE23AEE8}"/>
     <cellStyle name="Normal 3" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
-  <dxfs count="164">
+  <dxfs count="167">
     <dxf>
       <fill>
         <patternFill>
@@ -1585,6 +1621,30 @@
       <fill>
         <patternFill>
           <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2404,7 +2464,7 @@
         <xdr:cNvPr id="2" name="TextBox 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F7FE56C-361D-493E-9058-0CAFDD5DB8F7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF1E9CF8-94F7-4D38-8BE0-EB8F9C24ECDC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2507,23 +2567,23 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="B4:O53" totalsRowShown="0" headerRowDxfId="163" dataDxfId="162">
-  <autoFilter ref="B4:O53" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="B4:O54" totalsRowShown="0" headerRowDxfId="166" dataDxfId="165">
+  <autoFilter ref="B4:O54" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="ID" dataDxfId="161"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Name" dataDxfId="160"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Priority" dataDxfId="159"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Type" dataDxfId="158"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Assigned To" dataDxfId="157"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Release" dataDxfId="156"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Status" dataDxfId="155"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Source" dataDxfId="154"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Test Scenarios" dataDxfId="153"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Date Added" dataDxfId="152"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Date Modified" dataDxfId="151"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Package" dataDxfId="150"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Parent ID" dataDxfId="149"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="Description" dataDxfId="148"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="ID" dataDxfId="164"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Name" dataDxfId="163"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Priority" dataDxfId="162"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Type" dataDxfId="161"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Assigned To" dataDxfId="160"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Release" dataDxfId="159"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Status" dataDxfId="158"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Source" dataDxfId="157"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Test Scenarios" dataDxfId="156"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Date Added" dataDxfId="155"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Date Modified" dataDxfId="154"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Package" dataDxfId="153"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Parent ID" dataDxfId="152"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="Description" dataDxfId="151"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2850,10 +2910,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O83"/>
+  <dimension ref="A1:O84"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="O34" sqref="O34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3616,7 +3676,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="24" spans="2:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:15" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B24" s="6" t="s">
         <v>74</v>
       </c>
@@ -3648,7 +3708,9 @@
       <c r="N24" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="O24" s="7"/>
+      <c r="O24" s="7" t="s">
+        <v>203</v>
+      </c>
     </row>
     <row r="25" spans="2:15" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B25" s="6" t="s">
@@ -3822,7 +3884,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="30" spans="2:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:15" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B30" s="6" t="s">
         <v>92</v>
       </c>
@@ -3852,7 +3914,9 @@
         <v>15</v>
       </c>
       <c r="N30" s="7"/>
-      <c r="O30" s="7"/>
+      <c r="O30" s="7" t="s">
+        <v>204</v>
+      </c>
     </row>
     <row r="31" spans="2:15" s="1" customFormat="1" ht="57" x14ac:dyDescent="0.2">
       <c r="B31" s="6" t="s">
@@ -3890,15 +3954,15 @@
         <v>96</v>
       </c>
     </row>
-    <row r="32" spans="2:15" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:15" s="1" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B32" s="6" t="s">
         <v>97</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="D32" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E32" s="6" t="s">
         <v>18</v>
@@ -3911,7 +3975,7 @@
         <v>0</v>
       </c>
       <c r="K32" s="12">
-        <v>44691</v>
+        <v>44716</v>
       </c>
       <c r="L32" s="12">
         <v>44716</v>
@@ -3923,7 +3987,7 @@
         <v>92</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>99</v>
+        <v>205</v>
       </c>
     </row>
     <row r="33" spans="2:15" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
@@ -3931,7 +3995,7 @@
         <v>100</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D33" s="6">
         <v>2</v>
@@ -3947,7 +4011,7 @@
         <v>0</v>
       </c>
       <c r="K33" s="12">
-        <v>44716</v>
+        <v>44691</v>
       </c>
       <c r="L33" s="12">
         <v>44716</v>
@@ -3959,15 +4023,15 @@
         <v>92</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="34" spans="2:15" s="1" customFormat="1" ht="85.5" x14ac:dyDescent="0.2">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B34" s="6" t="s">
         <v>103</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D34" s="6">
         <v>2</v>
@@ -3995,18 +4059,18 @@
         <v>92</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" s="1" customFormat="1" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="B35" s="6" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B35" s="6" t="s">
-        <v>106</v>
-      </c>
       <c r="C35" s="7" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D35" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E35" s="6" t="s">
         <v>18</v>
@@ -4030,14 +4094,16 @@
       <c r="N35" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="O35" s="7"/>
-    </row>
-    <row r="36" spans="2:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O35" s="7" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="36" spans="2:15" s="1" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B36" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="C36" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="C36" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="D36" s="6">
         <v>1</v>
@@ -4062,14 +4128,16 @@
         <v>15</v>
       </c>
       <c r="N36" s="7"/>
-      <c r="O36" s="7"/>
+      <c r="O36" s="7" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="37" spans="2:15" s="1" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B37" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="C37" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="C37" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="D37" s="6">
         <v>1</v>
@@ -4094,18 +4162,18 @@
         <v>15</v>
       </c>
       <c r="N37" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="38" spans="2:15" s="1" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B38" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="C38" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="C38" s="7" t="s">
-        <v>114</v>
       </c>
       <c r="D38" s="6">
         <v>2</v>
@@ -4130,58 +4198,60 @@
         <v>15</v>
       </c>
       <c r="N38" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O38" s="7" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="39" spans="2:15" s="29" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="B39" s="30" t="s">
+        <v>206</v>
+      </c>
+      <c r="C39" s="31" t="s">
+        <v>207</v>
+      </c>
+      <c r="D39" s="30">
+        <v>1</v>
+      </c>
+      <c r="E39" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="F39" s="30"/>
+      <c r="G39" s="30"/>
+      <c r="H39" s="30"/>
+      <c r="I39" s="30"/>
+      <c r="J39" s="30">
+        <v>0</v>
+      </c>
+      <c r="K39" s="32">
+        <v>44720</v>
+      </c>
+      <c r="L39" s="32">
+        <v>44720</v>
+      </c>
+      <c r="M39" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="N39" s="31" t="s">
+        <v>107</v>
+      </c>
+      <c r="O39" s="31" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="40" spans="2:15" s="1" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="B40" s="6" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="39" spans="2:15" s="1" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="B39" s="6" t="s">
+      <c r="C40" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="C39" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="D39" s="6">
-        <v>1</v>
-      </c>
-      <c r="E39" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F39" s="6"/>
-      <c r="G39" s="6"/>
-      <c r="H39" s="6"/>
-      <c r="I39" s="6"/>
-      <c r="J39" s="6">
-        <v>0</v>
-      </c>
-      <c r="K39" s="12">
-        <v>44691</v>
-      </c>
-      <c r="L39" s="12">
-        <v>44716</v>
-      </c>
-      <c r="M39" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="N39" s="7"/>
-      <c r="O39" s="7" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="40" spans="2:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="C40" s="7" t="s">
-        <v>120</v>
       </c>
       <c r="D40" s="6">
         <v>1</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>76</v>
+        <v>18</v>
       </c>
       <c r="F40" s="6"/>
       <c r="G40" s="6"/>
@@ -4200,14 +4270,16 @@
         <v>15</v>
       </c>
       <c r="N40" s="7"/>
-      <c r="O40" s="7"/>
-    </row>
-    <row r="41" spans="2:15" s="1" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="O40" s="7" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="41" spans="2:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B41" s="6" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D41" s="6">
         <v>1</v>
@@ -4223,7 +4295,7 @@
         <v>0</v>
       </c>
       <c r="K41" s="12">
-        <v>44716</v>
+        <v>44691</v>
       </c>
       <c r="L41" s="12">
         <v>44716</v>
@@ -4231,19 +4303,15 @@
       <c r="M41" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="N41" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="O41" s="7" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="42" spans="2:15" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="N41" s="7"/>
+      <c r="O41" s="7"/>
+    </row>
+    <row r="42" spans="2:15" s="1" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B42" s="6" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D42" s="6">
         <v>1</v>
@@ -4268,18 +4336,18 @@
         <v>15</v>
       </c>
       <c r="N42" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="43" spans="2:15" s="1" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B43" s="6" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="D43" s="6">
         <v>1</v>
@@ -4304,18 +4372,18 @@
         <v>15</v>
       </c>
       <c r="N43" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="44" spans="2:15" s="1" customFormat="1" ht="57" x14ac:dyDescent="0.2">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" s="1" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B44" s="6" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="D44" s="6">
         <v>1</v>
@@ -4340,18 +4408,18 @@
         <v>15</v>
       </c>
       <c r="N44" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="45" spans="2:15" s="1" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" s="1" customFormat="1" ht="57" x14ac:dyDescent="0.2">
       <c r="B45" s="6" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D45" s="6">
         <v>1</v>
@@ -4367,7 +4435,7 @@
         <v>0</v>
       </c>
       <c r="K45" s="12">
-        <v>44691</v>
+        <v>44716</v>
       </c>
       <c r="L45" s="12">
         <v>44716</v>
@@ -4375,17 +4443,19 @@
       <c r="M45" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="N45" s="7"/>
+      <c r="N45" s="7" t="s">
+        <v>118</v>
+      </c>
       <c r="O45" s="7" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="46" spans="2:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B46" s="6" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D46" s="6">
         <v>1</v>
@@ -4401,7 +4471,7 @@
         <v>0</v>
       </c>
       <c r="K46" s="12">
-        <v>44716</v>
+        <v>44691</v>
       </c>
       <c r="L46" s="12">
         <v>44716</v>
@@ -4409,17 +4479,15 @@
       <c r="M46" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="N46" s="7" t="s">
-        <v>133</v>
-      </c>
+      <c r="N46" s="7"/>
       <c r="O46" s="7"/>
     </row>
-    <row r="47" spans="2:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:15" s="1" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B47" s="6" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D47" s="6">
         <v>1</v>
@@ -4444,16 +4512,18 @@
         <v>15</v>
       </c>
       <c r="N47" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="O47" s="7"/>
-    </row>
-    <row r="48" spans="2:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>132</v>
+      </c>
+      <c r="O47" s="7" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" s="1" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B48" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D48" s="6">
         <v>1</v>
@@ -4469,7 +4539,7 @@
         <v>0</v>
       </c>
       <c r="K48" s="12">
-        <v>44691</v>
+        <v>44716</v>
       </c>
       <c r="L48" s="12">
         <v>44716</v>
@@ -4477,15 +4547,19 @@
       <c r="M48" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="N48" s="7"/>
-      <c r="O48" s="7"/>
+      <c r="N48" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="O48" s="7" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="49" spans="2:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B49" s="6" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D49" s="6">
         <v>1</v>
@@ -4501,7 +4575,7 @@
         <v>0</v>
       </c>
       <c r="K49" s="12">
-        <v>44716</v>
+        <v>44691</v>
       </c>
       <c r="L49" s="12">
         <v>44716</v>
@@ -4509,19 +4583,15 @@
       <c r="M49" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="N49" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="O49" s="7" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="50" spans="2:15" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="N49" s="7"/>
+      <c r="O49" s="7"/>
+    </row>
+    <row r="50" spans="2:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B50" s="6" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="D50" s="6">
         <v>1</v>
@@ -4546,18 +4616,18 @@
         <v>15</v>
       </c>
       <c r="N50" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="51" spans="2:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="51" spans="2:15" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B51" s="6" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D51" s="6">
         <v>1</v>
@@ -4573,7 +4643,7 @@
         <v>0</v>
       </c>
       <c r="K51" s="12">
-        <v>44691</v>
+        <v>44716</v>
       </c>
       <c r="L51" s="12">
         <v>44716</v>
@@ -4581,15 +4651,19 @@
       <c r="M51" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="N51" s="7"/>
-      <c r="O51" s="7"/>
-    </row>
-    <row r="52" spans="2:15" s="1" customFormat="1" ht="57" x14ac:dyDescent="0.2">
+      <c r="N51" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="O51" s="7" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="52" spans="2:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B52" s="6" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D52" s="6">
         <v>1</v>
@@ -4605,7 +4679,7 @@
         <v>0</v>
       </c>
       <c r="K52" s="12">
-        <v>44716</v>
+        <v>44691</v>
       </c>
       <c r="L52" s="12">
         <v>44716</v>
@@ -4613,19 +4687,15 @@
       <c r="M52" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="N52" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="O52" s="7" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="53" spans="2:15" s="1" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="N52" s="7"/>
+      <c r="O52" s="7"/>
+    </row>
+    <row r="53" spans="2:15" s="1" customFormat="1" ht="57" x14ac:dyDescent="0.2">
       <c r="B53" s="6" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D53" s="6">
         <v>1</v>
@@ -4650,13 +4720,48 @@
         <v>15</v>
       </c>
       <c r="N53" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="54" spans="2:15" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+        <v>151</v>
+      </c>
+    </row>
+    <row r="54" spans="2:15" s="1" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="B54" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="D54" s="6">
+        <v>1</v>
+      </c>
+      <c r="E54" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="F54" s="6"/>
+      <c r="G54" s="6"/>
+      <c r="H54" s="6"/>
+      <c r="I54" s="6"/>
+      <c r="J54" s="6">
+        <v>0</v>
+      </c>
+      <c r="K54" s="12">
+        <v>44716</v>
+      </c>
+      <c r="L54" s="12">
+        <v>44716</v>
+      </c>
+      <c r="M54" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="N54" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="O54" s="7" t="s">
+        <v>154</v>
+      </c>
+    </row>
     <row r="55" spans="2:15" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="56" spans="2:15" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="57" spans="2:15" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -4686,6 +4791,7 @@
     <row r="81" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="82" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="83" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="84" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -4696,11 +4802,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E44CE3DE-D84B-4371-AFD8-DC4E656CA20B}">
-  <dimension ref="A1:AZ54"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA7D9428-79F9-4DCF-97D2-3E845C5C7D97}">
+  <dimension ref="A1:BA55"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="BC40" sqref="BC40"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="N32" sqref="N32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4711,42 +4817,42 @@
     <col min="4" max="16384" width="3.7109375" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" s="28" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="29" t="s">
-        <v>207</v>
-      </c>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="29"/>
-      <c r="M1" s="29"/>
-      <c r="N1" s="29"/>
-      <c r="O1" s="29"/>
-      <c r="P1" s="29"/>
-      <c r="Q1" s="29"/>
-      <c r="R1" s="29"/>
-      <c r="S1" s="29"/>
-      <c r="T1" s="29"/>
-    </row>
-    <row r="2" spans="1:52" s="22" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="27"/>
-      <c r="B2" s="26" t="s">
+    <row r="1" spans="1:53" s="27" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="28" t="s">
+        <v>202</v>
+      </c>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
+      <c r="N1" s="28"/>
+      <c r="O1" s="28"/>
+      <c r="P1" s="28"/>
+      <c r="Q1" s="28"/>
+      <c r="R1" s="28"/>
+      <c r="S1" s="28"/>
+      <c r="T1" s="28"/>
+    </row>
+    <row r="2" spans="1:53" s="22" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="26"/>
+      <c r="B2" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="25">
-        <v>44716.679942129631</v>
-      </c>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="33">
+        <v>44720.986840277779</v>
+      </c>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
       <c r="I2" s="24"/>
       <c r="J2" s="24"/>
       <c r="K2" s="24"/>
@@ -4759,115 +4865,115 @@
       <c r="R2" s="23"/>
       <c r="S2" s="23"/>
     </row>
-    <row r="3" spans="1:52" s="19" customFormat="1" ht="20.25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:53" s="19" customFormat="1" ht="20.25" x14ac:dyDescent="0.2">
       <c r="B3" s="21"/>
       <c r="C3" s="20"/>
     </row>
-    <row r="4" spans="1:52" ht="228.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:53" ht="228.75" x14ac:dyDescent="0.2">
       <c r="D4" s="18" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="E4" s="18" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="F4" s="18" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="G4" s="18" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="H4" s="18" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="I4" s="18" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="J4" s="18" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="K4" s="18" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="L4" s="18" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="M4" s="18" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="N4" s="18" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="O4" s="18" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="P4" s="18" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="Q4" s="18" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="R4" s="18" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="S4" s="18" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="T4" s="18" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="U4" s="18" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="V4" s="18" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="W4" s="18" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="X4" s="18" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="Y4" s="18" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="Z4" s="18" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="AA4" s="18" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="AB4" s="18" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="AC4" s="18" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="AD4" s="18" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="AE4" s="18" t="s">
-        <v>179</v>
+        <v>216</v>
       </c>
       <c r="AF4" s="18" t="s">
-        <v>178</v>
+        <v>215</v>
       </c>
       <c r="AG4" s="18" t="s">
-        <v>177</v>
+        <v>214</v>
       </c>
       <c r="AH4" s="18" t="s">
-        <v>176</v>
+        <v>213</v>
       </c>
       <c r="AI4" s="18" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AJ4" s="18" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AK4" s="18" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AL4" s="18" t="s">
-        <v>172</v>
+        <v>212</v>
       </c>
       <c r="AM4" s="18" t="s">
         <v>171</v>
@@ -4911,8 +5017,11 @@
       <c r="AZ4" s="18" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="5" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="BA4" s="18" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="5" spans="1:53" x14ac:dyDescent="0.2">
       <c r="B5" s="17" t="s">
         <v>16</v>
       </c>
@@ -4921,17 +5030,17 @@
       </c>
       <c r="D5" s="15"/>
       <c r="E5" s="15" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F5" s="15" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G5" s="15" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H5" s="15"/>
       <c r="I5" s="15" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J5" s="15"/>
       <c r="K5" s="15"/>
@@ -4962,10 +5071,10 @@
       <c r="AJ5" s="15"/>
       <c r="AK5" s="15"/>
       <c r="AL5" s="15"/>
-      <c r="AM5" s="15" t="s">
-        <v>156</v>
-      </c>
-      <c r="AN5" s="15"/>
+      <c r="AM5" s="15"/>
+      <c r="AN5" s="15" t="s">
+        <v>155</v>
+      </c>
       <c r="AO5" s="15"/>
       <c r="AP5" s="15"/>
       <c r="AQ5" s="15"/>
@@ -4975,13 +5084,14 @@
       <c r="AU5" s="15"/>
       <c r="AV5" s="15"/>
       <c r="AW5" s="15"/>
-      <c r="AX5" s="15" t="s">
-        <v>156</v>
-      </c>
-      <c r="AY5" s="15"/>
+      <c r="AX5" s="15"/>
+      <c r="AY5" s="15" t="s">
+        <v>155</v>
+      </c>
       <c r="AZ5" s="15"/>
-    </row>
-    <row r="6" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="BA5" s="15"/>
+    </row>
+    <row r="6" spans="1:53" x14ac:dyDescent="0.2">
       <c r="B6" s="17" t="s">
         <v>20</v>
       </c>
@@ -4989,16 +5099,16 @@
         <v>21</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E6" s="15"/>
       <c r="F6" s="15"/>
       <c r="G6" s="15" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H6" s="15"/>
       <c r="I6" s="15" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J6" s="15"/>
       <c r="K6" s="15"/>
@@ -5040,13 +5150,14 @@
       <c r="AU6" s="15"/>
       <c r="AV6" s="15"/>
       <c r="AW6" s="15"/>
-      <c r="AX6" s="15" t="s">
-        <v>156</v>
-      </c>
-      <c r="AY6" s="15"/>
+      <c r="AX6" s="15"/>
+      <c r="AY6" s="15" t="s">
+        <v>155</v>
+      </c>
       <c r="AZ6" s="15"/>
-    </row>
-    <row r="7" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="BA6" s="15"/>
+    </row>
+    <row r="7" spans="1:53" x14ac:dyDescent="0.2">
       <c r="B7" s="17" t="s">
         <v>23</v>
       </c>
@@ -5054,16 +5165,16 @@
         <v>24</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E7" s="15"/>
       <c r="F7" s="15"/>
       <c r="G7" s="15" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H7" s="15"/>
       <c r="I7" s="15" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J7" s="15"/>
       <c r="K7" s="15"/>
@@ -5105,13 +5216,14 @@
       <c r="AU7" s="15"/>
       <c r="AV7" s="15"/>
       <c r="AW7" s="15"/>
-      <c r="AX7" s="15" t="s">
-        <v>156</v>
-      </c>
-      <c r="AY7" s="15"/>
+      <c r="AX7" s="15"/>
+      <c r="AY7" s="15" t="s">
+        <v>155</v>
+      </c>
       <c r="AZ7" s="15"/>
-    </row>
-    <row r="8" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="BA7" s="15"/>
+    </row>
+    <row r="8" spans="1:53" x14ac:dyDescent="0.2">
       <c r="B8" s="17" t="s">
         <v>26</v>
       </c>
@@ -5119,23 +5231,23 @@
         <v>27</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F8" s="15" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G8" s="15"/>
       <c r="H8" s="15" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I8" s="15" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J8" s="15" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K8" s="15"/>
       <c r="L8" s="15"/>
@@ -5144,13 +5256,13 @@
       <c r="O8" s="15"/>
       <c r="P8" s="15"/>
       <c r="Q8" s="15" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="R8" s="15"/>
       <c r="S8" s="15"/>
       <c r="T8" s="15"/>
       <c r="U8" s="15" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="V8" s="15"/>
       <c r="W8" s="15"/>
@@ -5161,21 +5273,21 @@
       <c r="AB8" s="15"/>
       <c r="AC8" s="15"/>
       <c r="AD8" s="15" t="s">
-        <v>156</v>
-      </c>
-      <c r="AE8" s="15" t="s">
-        <v>156</v>
-      </c>
-      <c r="AF8" s="15"/>
+        <v>155</v>
+      </c>
+      <c r="AE8" s="15"/>
+      <c r="AF8" s="15" t="s">
+        <v>155</v>
+      </c>
       <c r="AG8" s="15"/>
       <c r="AH8" s="15"/>
       <c r="AI8" s="15"/>
       <c r="AJ8" s="15"/>
       <c r="AK8" s="15"/>
-      <c r="AL8" s="15" t="s">
-        <v>156</v>
-      </c>
-      <c r="AM8" s="15"/>
+      <c r="AL8" s="15"/>
+      <c r="AM8" s="15" t="s">
+        <v>155</v>
+      </c>
       <c r="AN8" s="15"/>
       <c r="AO8" s="15"/>
       <c r="AP8" s="15"/>
@@ -5189,8 +5301,9 @@
       <c r="AX8" s="15"/>
       <c r="AY8" s="15"/>
       <c r="AZ8" s="15"/>
-    </row>
-    <row r="9" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="BA8" s="15"/>
+    </row>
+    <row r="9" spans="1:53" x14ac:dyDescent="0.2">
       <c r="B9" s="17" t="s">
         <v>29</v>
       </c>
@@ -5201,7 +5314,7 @@
       <c r="E9" s="15"/>
       <c r="F9" s="15"/>
       <c r="G9" s="15" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H9" s="15"/>
       <c r="I9" s="15"/>
@@ -5234,10 +5347,10 @@
       <c r="AJ9" s="15"/>
       <c r="AK9" s="15"/>
       <c r="AL9" s="15"/>
-      <c r="AM9" s="15" t="s">
-        <v>157</v>
-      </c>
-      <c r="AN9" s="15"/>
+      <c r="AM9" s="15"/>
+      <c r="AN9" s="15" t="s">
+        <v>156</v>
+      </c>
       <c r="AO9" s="15"/>
       <c r="AP9" s="15"/>
       <c r="AQ9" s="15"/>
@@ -5250,8 +5363,9 @@
       <c r="AX9" s="15"/>
       <c r="AY9" s="15"/>
       <c r="AZ9" s="15"/>
-    </row>
-    <row r="10" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="BA9" s="15"/>
+    </row>
+    <row r="10" spans="1:53" x14ac:dyDescent="0.2">
       <c r="B10" s="17" t="s">
         <v>32</v>
       </c>
@@ -5259,16 +5373,16 @@
         <v>33</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F10" s="15" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G10" s="15" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H10" s="15"/>
       <c r="I10" s="15"/>
@@ -5315,8 +5429,9 @@
       <c r="AX10" s="15"/>
       <c r="AY10" s="15"/>
       <c r="AZ10" s="15"/>
-    </row>
-    <row r="11" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="BA10" s="15"/>
+    </row>
+    <row r="11" spans="1:53" x14ac:dyDescent="0.2">
       <c r="B11" s="17" t="s">
         <v>35</v>
       </c>
@@ -5327,7 +5442,7 @@
       <c r="E11" s="15"/>
       <c r="F11" s="15"/>
       <c r="G11" s="15" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H11" s="15"/>
       <c r="I11" s="15"/>
@@ -5374,8 +5489,9 @@
       <c r="AX11" s="15"/>
       <c r="AY11" s="15"/>
       <c r="AZ11" s="15"/>
-    </row>
-    <row r="12" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="BA11" s="15"/>
+    </row>
+    <row r="12" spans="1:53" x14ac:dyDescent="0.2">
       <c r="B12" s="17" t="s">
         <v>38</v>
       </c>
@@ -5391,16 +5507,16 @@
       <c r="J12" s="15"/>
       <c r="K12" s="15"/>
       <c r="L12" s="15" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="M12" s="15" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="N12" s="15" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="O12" s="15" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="P12" s="15"/>
       <c r="Q12" s="15"/>
@@ -5439,8 +5555,9 @@
       <c r="AX12" s="15"/>
       <c r="AY12" s="15"/>
       <c r="AZ12" s="15"/>
-    </row>
-    <row r="13" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="BA12" s="15"/>
+    </row>
+    <row r="13" spans="1:53" x14ac:dyDescent="0.2">
       <c r="B13" s="17" t="s">
         <v>41</v>
       </c>
@@ -5455,7 +5572,7 @@
       <c r="I13" s="15"/>
       <c r="J13" s="15"/>
       <c r="K13" s="15" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="L13" s="15"/>
       <c r="M13" s="15"/>
@@ -5498,8 +5615,9 @@
       <c r="AX13" s="15"/>
       <c r="AY13" s="15"/>
       <c r="AZ13" s="15"/>
-    </row>
-    <row r="14" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="BA13" s="15"/>
+    </row>
+    <row r="14" spans="1:53" x14ac:dyDescent="0.2">
       <c r="B14" s="17" t="s">
         <v>44</v>
       </c>
@@ -5514,7 +5632,7 @@
       <c r="I14" s="15"/>
       <c r="J14" s="15"/>
       <c r="K14" s="15" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="L14" s="15"/>
       <c r="M14" s="15"/>
@@ -5557,8 +5675,9 @@
       <c r="AX14" s="15"/>
       <c r="AY14" s="15"/>
       <c r="AZ14" s="15"/>
-    </row>
-    <row r="15" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="BA14" s="15"/>
+    </row>
+    <row r="15" spans="1:53" x14ac:dyDescent="0.2">
       <c r="B15" s="17" t="s">
         <v>47</v>
       </c>
@@ -5573,7 +5692,7 @@
       <c r="I15" s="15"/>
       <c r="J15" s="15"/>
       <c r="K15" s="15" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="L15" s="15"/>
       <c r="M15" s="15"/>
@@ -5616,8 +5735,9 @@
       <c r="AX15" s="15"/>
       <c r="AY15" s="15"/>
       <c r="AZ15" s="15"/>
-    </row>
-    <row r="16" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="BA15" s="15"/>
+    </row>
+    <row r="16" spans="1:53" x14ac:dyDescent="0.2">
       <c r="B16" s="17" t="s">
         <v>50</v>
       </c>
@@ -5632,7 +5752,7 @@
       <c r="I16" s="15"/>
       <c r="J16" s="15"/>
       <c r="K16" s="15" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="L16" s="15"/>
       <c r="M16" s="15"/>
@@ -5675,8 +5795,9 @@
       <c r="AX16" s="15"/>
       <c r="AY16" s="15"/>
       <c r="AZ16" s="15"/>
-    </row>
-    <row r="17" spans="2:52" x14ac:dyDescent="0.2">
+      <c r="BA16" s="15"/>
+    </row>
+    <row r="17" spans="2:53" x14ac:dyDescent="0.2">
       <c r="B17" s="17" t="s">
         <v>53</v>
       </c>
@@ -5697,13 +5818,13 @@
       <c r="O17" s="15"/>
       <c r="P17" s="15"/>
       <c r="Q17" s="15" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="R17" s="15" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="S17" s="15" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="T17" s="15"/>
       <c r="U17" s="15"/>
@@ -5738,8 +5859,9 @@
       <c r="AX17" s="15"/>
       <c r="AY17" s="15"/>
       <c r="AZ17" s="15"/>
-    </row>
-    <row r="18" spans="2:52" x14ac:dyDescent="0.2">
+      <c r="BA17" s="15"/>
+    </row>
+    <row r="18" spans="2:53" x14ac:dyDescent="0.2">
       <c r="B18" s="17" t="s">
         <v>56</v>
       </c>
@@ -5750,7 +5872,7 @@
       <c r="E18" s="15"/>
       <c r="F18" s="15"/>
       <c r="G18" s="15" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H18" s="15"/>
       <c r="I18" s="15"/>
@@ -5761,7 +5883,7 @@
       <c r="N18" s="15"/>
       <c r="O18" s="15"/>
       <c r="P18" s="15" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="Q18" s="15"/>
       <c r="R18" s="15"/>
@@ -5799,8 +5921,9 @@
       <c r="AX18" s="15"/>
       <c r="AY18" s="15"/>
       <c r="AZ18" s="15"/>
-    </row>
-    <row r="19" spans="2:52" x14ac:dyDescent="0.2">
+      <c r="BA18" s="15"/>
+    </row>
+    <row r="19" spans="2:53" x14ac:dyDescent="0.2">
       <c r="B19" s="17" t="s">
         <v>59</v>
       </c>
@@ -5820,7 +5943,7 @@
       <c r="N19" s="15"/>
       <c r="O19" s="15"/>
       <c r="P19" s="15" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="Q19" s="15"/>
       <c r="R19" s="15"/>
@@ -5858,8 +5981,9 @@
       <c r="AX19" s="15"/>
       <c r="AY19" s="15"/>
       <c r="AZ19" s="15"/>
-    </row>
-    <row r="20" spans="2:52" x14ac:dyDescent="0.2">
+      <c r="BA19" s="15"/>
+    </row>
+    <row r="20" spans="2:53" x14ac:dyDescent="0.2">
       <c r="B20" s="17" t="s">
         <v>62</v>
       </c>
@@ -5879,7 +6003,7 @@
       <c r="N20" s="15"/>
       <c r="O20" s="15"/>
       <c r="P20" s="15" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="Q20" s="15"/>
       <c r="R20" s="15"/>
@@ -5917,8 +6041,9 @@
       <c r="AX20" s="15"/>
       <c r="AY20" s="15"/>
       <c r="AZ20" s="15"/>
-    </row>
-    <row r="21" spans="2:52" x14ac:dyDescent="0.2">
+      <c r="BA20" s="15"/>
+    </row>
+    <row r="21" spans="2:53" x14ac:dyDescent="0.2">
       <c r="B21" s="17" t="s">
         <v>65</v>
       </c>
@@ -5943,7 +6068,7 @@
       <c r="S21" s="15"/>
       <c r="T21" s="15"/>
       <c r="U21" s="15" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="V21" s="15"/>
       <c r="W21" s="15"/>
@@ -5976,8 +6101,9 @@
       <c r="AX21" s="15"/>
       <c r="AY21" s="15"/>
       <c r="AZ21" s="15"/>
-    </row>
-    <row r="22" spans="2:52" x14ac:dyDescent="0.2">
+      <c r="BA21" s="15"/>
+    </row>
+    <row r="22" spans="2:53" x14ac:dyDescent="0.2">
       <c r="B22" s="17" t="s">
         <v>68</v>
       </c>
@@ -5988,7 +6114,7 @@
       <c r="E22" s="15"/>
       <c r="F22" s="15"/>
       <c r="G22" s="15" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H22" s="15"/>
       <c r="I22" s="15"/>
@@ -6003,7 +6129,7 @@
       <c r="R22" s="15"/>
       <c r="S22" s="15"/>
       <c r="T22" s="15" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="U22" s="15"/>
       <c r="V22" s="15"/>
@@ -6021,13 +6147,13 @@
       <c r="AH22" s="15"/>
       <c r="AI22" s="15"/>
       <c r="AJ22" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="AK22" s="15"/>
+      <c r="AL22" s="15"/>
+      <c r="AM22" s="15" t="s">
         <v>156</v>
       </c>
-      <c r="AK22" s="15"/>
-      <c r="AL22" s="15" t="s">
-        <v>157</v>
-      </c>
-      <c r="AM22" s="15"/>
       <c r="AN22" s="15"/>
       <c r="AO22" s="15"/>
       <c r="AP22" s="15"/>
@@ -6041,8 +6167,9 @@
       <c r="AX22" s="15"/>
       <c r="AY22" s="15"/>
       <c r="AZ22" s="15"/>
-    </row>
-    <row r="23" spans="2:52" x14ac:dyDescent="0.2">
+      <c r="BA22" s="15"/>
+    </row>
+    <row r="23" spans="2:53" x14ac:dyDescent="0.2">
       <c r="B23" s="17" t="s">
         <v>71</v>
       </c>
@@ -6069,7 +6196,7 @@
       <c r="U23" s="15"/>
       <c r="V23" s="15"/>
       <c r="W23" s="15" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="X23" s="15"/>
       <c r="Y23" s="15"/>
@@ -6084,7 +6211,7 @@
       <c r="AH23" s="15"/>
       <c r="AI23" s="15"/>
       <c r="AJ23" s="15" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AK23" s="15"/>
       <c r="AL23" s="15"/>
@@ -6102,8 +6229,9 @@
       <c r="AX23" s="15"/>
       <c r="AY23" s="15"/>
       <c r="AZ23" s="15"/>
-    </row>
-    <row r="24" spans="2:52" x14ac:dyDescent="0.2">
+      <c r="BA23" s="15"/>
+    </row>
+    <row r="24" spans="2:53" x14ac:dyDescent="0.2">
       <c r="B24" s="17" t="s">
         <v>74</v>
       </c>
@@ -6129,7 +6257,7 @@
       <c r="T24" s="15"/>
       <c r="U24" s="15"/>
       <c r="V24" s="15" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="W24" s="15"/>
       <c r="X24" s="15"/>
@@ -6161,8 +6289,9 @@
       <c r="AX24" s="15"/>
       <c r="AY24" s="15"/>
       <c r="AZ24" s="15"/>
-    </row>
-    <row r="25" spans="2:52" x14ac:dyDescent="0.2">
+      <c r="BA24" s="15"/>
+    </row>
+    <row r="25" spans="2:53" x14ac:dyDescent="0.2">
       <c r="B25" s="17" t="s">
         <v>77</v>
       </c>
@@ -6191,7 +6320,7 @@
       <c r="W25" s="15"/>
       <c r="X25" s="15"/>
       <c r="Y25" s="15" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="Z25" s="15"/>
       <c r="AA25" s="15"/>
@@ -6220,8 +6349,9 @@
       <c r="AX25" s="15"/>
       <c r="AY25" s="15"/>
       <c r="AZ25" s="15"/>
-    </row>
-    <row r="26" spans="2:52" x14ac:dyDescent="0.2">
+      <c r="BA25" s="15"/>
+    </row>
+    <row r="26" spans="2:53" x14ac:dyDescent="0.2">
       <c r="B26" s="17" t="s">
         <v>80</v>
       </c>
@@ -6249,7 +6379,7 @@
       <c r="V26" s="15"/>
       <c r="W26" s="15"/>
       <c r="X26" s="15" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="Y26" s="15"/>
       <c r="Z26" s="15"/>
@@ -6279,8 +6409,9 @@
       <c r="AX26" s="15"/>
       <c r="AY26" s="15"/>
       <c r="AZ26" s="15"/>
-    </row>
-    <row r="27" spans="2:52" x14ac:dyDescent="0.2">
+      <c r="BA26" s="15"/>
+    </row>
+    <row r="27" spans="2:53" x14ac:dyDescent="0.2">
       <c r="B27" s="17" t="s">
         <v>83</v>
       </c>
@@ -6336,8 +6467,9 @@
       <c r="AX27" s="15"/>
       <c r="AY27" s="15"/>
       <c r="AZ27" s="15"/>
-    </row>
-    <row r="28" spans="2:52" x14ac:dyDescent="0.2">
+      <c r="BA27" s="15"/>
+    </row>
+    <row r="28" spans="2:53" x14ac:dyDescent="0.2">
       <c r="B28" s="17" t="s">
         <v>86</v>
       </c>
@@ -6393,8 +6525,9 @@
       <c r="AX28" s="15"/>
       <c r="AY28" s="15"/>
       <c r="AZ28" s="15"/>
-    </row>
-    <row r="29" spans="2:52" x14ac:dyDescent="0.2">
+      <c r="BA28" s="15"/>
+    </row>
+    <row r="29" spans="2:53" x14ac:dyDescent="0.2">
       <c r="B29" s="17" t="s">
         <v>89</v>
       </c>
@@ -6435,10 +6568,10 @@
       <c r="AI29" s="15"/>
       <c r="AJ29" s="15"/>
       <c r="AK29" s="15"/>
-      <c r="AL29" s="15" t="s">
-        <v>156</v>
-      </c>
-      <c r="AM29" s="15"/>
+      <c r="AL29" s="15"/>
+      <c r="AM29" s="15" t="s">
+        <v>155</v>
+      </c>
       <c r="AN29" s="15"/>
       <c r="AO29" s="15"/>
       <c r="AP29" s="15"/>
@@ -6452,8 +6585,9 @@
       <c r="AX29" s="15"/>
       <c r="AY29" s="15"/>
       <c r="AZ29" s="15"/>
-    </row>
-    <row r="30" spans="2:52" x14ac:dyDescent="0.2">
+      <c r="BA29" s="15"/>
+    </row>
+    <row r="30" spans="2:53" x14ac:dyDescent="0.2">
       <c r="B30" s="17" t="s">
         <v>92</v>
       </c>
@@ -6487,19 +6621,19 @@
       <c r="AB30" s="15"/>
       <c r="AC30" s="15"/>
       <c r="AD30" s="15" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AE30" s="15" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AF30" s="15" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AG30" s="15" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AH30" s="15" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AI30" s="15"/>
       <c r="AJ30" s="15"/>
@@ -6519,8 +6653,9 @@
       <c r="AX30" s="15"/>
       <c r="AY30" s="15"/>
       <c r="AZ30" s="15"/>
-    </row>
-    <row r="31" spans="2:52" x14ac:dyDescent="0.2">
+      <c r="BA30" s="15"/>
+    </row>
+    <row r="31" spans="2:53" x14ac:dyDescent="0.2">
       <c r="B31" s="17" t="s">
         <v>94</v>
       </c>
@@ -6531,7 +6666,7 @@
       <c r="E31" s="15"/>
       <c r="F31" s="15"/>
       <c r="G31" s="15" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H31" s="15"/>
       <c r="I31" s="15"/>
@@ -6555,7 +6690,7 @@
       <c r="AA31" s="15"/>
       <c r="AB31" s="15"/>
       <c r="AC31" s="15" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AD31" s="15"/>
       <c r="AE31" s="15"/>
@@ -6580,20 +6715,19 @@
       <c r="AX31" s="15"/>
       <c r="AY31" s="15"/>
       <c r="AZ31" s="15"/>
-    </row>
-    <row r="32" spans="2:52" x14ac:dyDescent="0.2">
+      <c r="BA31" s="15"/>
+    </row>
+    <row r="32" spans="2:53" x14ac:dyDescent="0.2">
       <c r="B32" s="17" t="s">
         <v>97</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="D32" s="15"/>
       <c r="E32" s="15"/>
       <c r="F32" s="15"/>
-      <c r="G32" s="15" t="s">
-        <v>157</v>
-      </c>
+      <c r="G32" s="15"/>
       <c r="H32" s="15"/>
       <c r="I32" s="15"/>
       <c r="J32" s="15"/>
@@ -6616,7 +6750,7 @@
       <c r="AA32" s="15"/>
       <c r="AB32" s="15"/>
       <c r="AC32" s="15" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AD32" s="15"/>
       <c r="AE32" s="15"/>
@@ -6641,18 +6775,21 @@
       <c r="AX32" s="15"/>
       <c r="AY32" s="15"/>
       <c r="AZ32" s="15"/>
-    </row>
-    <row r="33" spans="2:52" x14ac:dyDescent="0.2">
+      <c r="BA32" s="15"/>
+    </row>
+    <row r="33" spans="2:53" x14ac:dyDescent="0.2">
       <c r="B33" s="17" t="s">
         <v>100</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D33" s="15"/>
       <c r="E33" s="15"/>
       <c r="F33" s="15"/>
-      <c r="G33" s="15"/>
+      <c r="G33" s="15" t="s">
+        <v>156</v>
+      </c>
       <c r="H33" s="15"/>
       <c r="I33" s="15"/>
       <c r="J33" s="15"/>
@@ -6675,7 +6812,7 @@
       <c r="AA33" s="15"/>
       <c r="AB33" s="15"/>
       <c r="AC33" s="15" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AD33" s="15"/>
       <c r="AE33" s="15"/>
@@ -6700,13 +6837,14 @@
       <c r="AX33" s="15"/>
       <c r="AY33" s="15"/>
       <c r="AZ33" s="15"/>
-    </row>
-    <row r="34" spans="2:52" x14ac:dyDescent="0.2">
+      <c r="BA33" s="15"/>
+    </row>
+    <row r="34" spans="2:53" x14ac:dyDescent="0.2">
       <c r="B34" s="17" t="s">
         <v>103</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D34" s="15"/>
       <c r="E34" s="15"/>
@@ -6734,7 +6872,7 @@
       <c r="AA34" s="15"/>
       <c r="AB34" s="15"/>
       <c r="AC34" s="15" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AD34" s="15"/>
       <c r="AE34" s="15"/>
@@ -6759,13 +6897,14 @@
       <c r="AX34" s="15"/>
       <c r="AY34" s="15"/>
       <c r="AZ34" s="15"/>
-    </row>
-    <row r="35" spans="2:52" x14ac:dyDescent="0.2">
+      <c r="BA34" s="15"/>
+    </row>
+    <row r="35" spans="2:53" x14ac:dyDescent="0.2">
       <c r="B35" s="17" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D35" s="15"/>
       <c r="E35" s="15"/>
@@ -6793,7 +6932,7 @@
       <c r="AA35" s="15"/>
       <c r="AB35" s="15"/>
       <c r="AC35" s="15" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AD35" s="15"/>
       <c r="AE35" s="15"/>
@@ -6818,13 +6957,14 @@
       <c r="AX35" s="15"/>
       <c r="AY35" s="15"/>
       <c r="AZ35" s="15"/>
-    </row>
-    <row r="36" spans="2:52" x14ac:dyDescent="0.2">
+      <c r="BA35" s="15"/>
+    </row>
+    <row r="36" spans="2:53" x14ac:dyDescent="0.2">
       <c r="B36" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="C36" s="16" t="s">
         <v>108</v>
-      </c>
-      <c r="C36" s="16" t="s">
-        <v>109</v>
       </c>
       <c r="D36" s="15"/>
       <c r="E36" s="15"/>
@@ -6859,12 +6999,14 @@
       <c r="AH36" s="15"/>
       <c r="AI36" s="15"/>
       <c r="AJ36" s="15" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AK36" s="15" t="s">
-        <v>157</v>
-      </c>
-      <c r="AL36" s="15"/>
+        <v>156</v>
+      </c>
+      <c r="AL36" s="15" t="s">
+        <v>156</v>
+      </c>
       <c r="AM36" s="15"/>
       <c r="AN36" s="15"/>
       <c r="AO36" s="15"/>
@@ -6879,13 +7021,14 @@
       <c r="AX36" s="15"/>
       <c r="AY36" s="15"/>
       <c r="AZ36" s="15"/>
-    </row>
-    <row r="37" spans="2:52" x14ac:dyDescent="0.2">
+      <c r="BA36" s="15"/>
+    </row>
+    <row r="37" spans="2:53" x14ac:dyDescent="0.2">
       <c r="B37" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="C37" s="16" t="s">
         <v>110</v>
-      </c>
-      <c r="C37" s="16" t="s">
-        <v>111</v>
       </c>
       <c r="D37" s="15"/>
       <c r="E37" s="15"/>
@@ -6905,10 +7048,10 @@
       <c r="S37" s="15"/>
       <c r="T37" s="15"/>
       <c r="U37" s="15" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="V37" s="15" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="W37" s="15"/>
       <c r="X37" s="15"/>
@@ -6923,7 +7066,7 @@
       <c r="AG37" s="15"/>
       <c r="AH37" s="15"/>
       <c r="AI37" s="15" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AJ37" s="15"/>
       <c r="AK37" s="15"/>
@@ -6942,13 +7085,14 @@
       <c r="AX37" s="15"/>
       <c r="AY37" s="15"/>
       <c r="AZ37" s="15"/>
-    </row>
-    <row r="38" spans="2:52" x14ac:dyDescent="0.2">
+      <c r="BA37" s="15"/>
+    </row>
+    <row r="38" spans="2:53" x14ac:dyDescent="0.2">
       <c r="B38" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="C38" s="16" t="s">
         <v>113</v>
-      </c>
-      <c r="C38" s="16" t="s">
-        <v>114</v>
       </c>
       <c r="D38" s="15"/>
       <c r="E38" s="15"/>
@@ -6982,7 +7126,7 @@
       <c r="AG38" s="15"/>
       <c r="AH38" s="15"/>
       <c r="AI38" s="15" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AJ38" s="15"/>
       <c r="AK38" s="15"/>
@@ -7001,20 +7145,19 @@
       <c r="AX38" s="15"/>
       <c r="AY38" s="15"/>
       <c r="AZ38" s="15"/>
-    </row>
-    <row r="39" spans="2:52" x14ac:dyDescent="0.2">
+      <c r="BA38" s="15"/>
+    </row>
+    <row r="39" spans="2:53" x14ac:dyDescent="0.2">
       <c r="B39" s="17" t="s">
-        <v>116</v>
+        <v>206</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>117</v>
+        <v>207</v>
       </c>
       <c r="D39" s="15"/>
       <c r="E39" s="15"/>
       <c r="F39" s="15"/>
-      <c r="G39" s="15" t="s">
-        <v>157</v>
-      </c>
+      <c r="G39" s="15"/>
       <c r="H39" s="15"/>
       <c r="I39" s="15"/>
       <c r="J39" s="15"/>
@@ -7028,25 +7171,23 @@
       <c r="R39" s="15"/>
       <c r="S39" s="15"/>
       <c r="T39" s="15"/>
-      <c r="U39" s="15" t="s">
-        <v>156</v>
-      </c>
+      <c r="U39" s="15"/>
       <c r="V39" s="15"/>
       <c r="W39" s="15"/>
       <c r="X39" s="15"/>
       <c r="Y39" s="15"/>
       <c r="Z39" s="15"/>
       <c r="AA39" s="15"/>
-      <c r="AB39" s="15" t="s">
-        <v>157</v>
-      </c>
+      <c r="AB39" s="15"/>
       <c r="AC39" s="15"/>
       <c r="AD39" s="15"/>
       <c r="AE39" s="15"/>
       <c r="AF39" s="15"/>
       <c r="AG39" s="15"/>
       <c r="AH39" s="15"/>
-      <c r="AI39" s="15"/>
+      <c r="AI39" s="15" t="s">
+        <v>155</v>
+      </c>
       <c r="AJ39" s="15"/>
       <c r="AK39" s="15"/>
       <c r="AL39" s="15"/>
@@ -7061,28 +7202,25 @@
       <c r="AU39" s="15"/>
       <c r="AV39" s="15"/>
       <c r="AW39" s="15"/>
-      <c r="AX39" s="15" t="s">
-        <v>156</v>
-      </c>
+      <c r="AX39" s="15"/>
       <c r="AY39" s="15"/>
       <c r="AZ39" s="15"/>
-    </row>
-    <row r="40" spans="2:52" x14ac:dyDescent="0.2">
+      <c r="BA39" s="15"/>
+    </row>
+    <row r="40" spans="2:53" x14ac:dyDescent="0.2">
       <c r="B40" s="17" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>120</v>
-      </c>
-      <c r="D40" s="15" t="s">
-        <v>157</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="D40" s="15"/>
       <c r="E40" s="15"/>
       <c r="F40" s="15"/>
-      <c r="G40" s="15"/>
-      <c r="H40" s="15" t="s">
+      <c r="G40" s="15" t="s">
         <v>156</v>
       </c>
+      <c r="H40" s="15"/>
       <c r="I40" s="15"/>
       <c r="J40" s="15"/>
       <c r="K40" s="15"/>
@@ -7095,14 +7233,18 @@
       <c r="R40" s="15"/>
       <c r="S40" s="15"/>
       <c r="T40" s="15"/>
-      <c r="U40" s="15"/>
+      <c r="U40" s="15" t="s">
+        <v>155</v>
+      </c>
       <c r="V40" s="15"/>
       <c r="W40" s="15"/>
       <c r="X40" s="15"/>
       <c r="Y40" s="15"/>
       <c r="Z40" s="15"/>
       <c r="AA40" s="15"/>
-      <c r="AB40" s="15"/>
+      <c r="AB40" s="15" t="s">
+        <v>156</v>
+      </c>
       <c r="AC40" s="15"/>
       <c r="AD40" s="15"/>
       <c r="AE40" s="15"/>
@@ -7114,18 +7256,10 @@
       <c r="AK40" s="15"/>
       <c r="AL40" s="15"/>
       <c r="AM40" s="15"/>
-      <c r="AN40" s="15" t="s">
-        <v>157</v>
-      </c>
-      <c r="AO40" s="15" t="s">
-        <v>157</v>
-      </c>
-      <c r="AP40" s="15" t="s">
-        <v>157</v>
-      </c>
-      <c r="AQ40" s="15" t="s">
-        <v>157</v>
-      </c>
+      <c r="AN40" s="15"/>
+      <c r="AO40" s="15"/>
+      <c r="AP40" s="15"/>
+      <c r="AQ40" s="15"/>
       <c r="AR40" s="15"/>
       <c r="AS40" s="15"/>
       <c r="AT40" s="15"/>
@@ -7133,21 +7267,28 @@
       <c r="AV40" s="15"/>
       <c r="AW40" s="15"/>
       <c r="AX40" s="15"/>
-      <c r="AY40" s="15"/>
+      <c r="AY40" s="15" t="s">
+        <v>155</v>
+      </c>
       <c r="AZ40" s="15"/>
-    </row>
-    <row r="41" spans="2:52" x14ac:dyDescent="0.2">
+      <c r="BA40" s="15"/>
+    </row>
+    <row r="41" spans="2:53" x14ac:dyDescent="0.2">
       <c r="B41" s="17" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>122</v>
-      </c>
-      <c r="D41" s="15"/>
+        <v>119</v>
+      </c>
+      <c r="D41" s="15" t="s">
+        <v>156</v>
+      </c>
       <c r="E41" s="15"/>
       <c r="F41" s="15"/>
       <c r="G41" s="15"/>
-      <c r="H41" s="15"/>
+      <c r="H41" s="15" t="s">
+        <v>155</v>
+      </c>
       <c r="I41" s="15"/>
       <c r="J41" s="15"/>
       <c r="K41" s="15"/>
@@ -7178,14 +7319,20 @@
       <c r="AJ41" s="15"/>
       <c r="AK41" s="15"/>
       <c r="AL41" s="15"/>
-      <c r="AM41" s="15" t="s">
+      <c r="AM41" s="15"/>
+      <c r="AN41" s="15"/>
+      <c r="AO41" s="15" t="s">
         <v>156</v>
       </c>
-      <c r="AN41" s="15"/>
-      <c r="AO41" s="15"/>
-      <c r="AP41" s="15"/>
-      <c r="AQ41" s="15"/>
-      <c r="AR41" s="15"/>
+      <c r="AP41" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="AQ41" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="AR41" s="15" t="s">
+        <v>156</v>
+      </c>
       <c r="AS41" s="15"/>
       <c r="AT41" s="15"/>
       <c r="AU41" s="15"/>
@@ -7194,13 +7341,14 @@
       <c r="AX41" s="15"/>
       <c r="AY41" s="15"/>
       <c r="AZ41" s="15"/>
-    </row>
-    <row r="42" spans="2:52" x14ac:dyDescent="0.2">
+      <c r="BA41" s="15"/>
+    </row>
+    <row r="42" spans="2:53" x14ac:dyDescent="0.2">
       <c r="B42" s="17" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D42" s="15"/>
       <c r="E42" s="15"/>
@@ -7237,10 +7385,10 @@
       <c r="AJ42" s="15"/>
       <c r="AK42" s="15"/>
       <c r="AL42" s="15"/>
-      <c r="AM42" s="15" t="s">
-        <v>156</v>
-      </c>
-      <c r="AN42" s="15"/>
+      <c r="AM42" s="15"/>
+      <c r="AN42" s="15" t="s">
+        <v>155</v>
+      </c>
       <c r="AO42" s="15"/>
       <c r="AP42" s="15"/>
       <c r="AQ42" s="15"/>
@@ -7253,13 +7401,14 @@
       <c r="AX42" s="15"/>
       <c r="AY42" s="15"/>
       <c r="AZ42" s="15"/>
-    </row>
-    <row r="43" spans="2:52" x14ac:dyDescent="0.2">
+      <c r="BA42" s="15"/>
+    </row>
+    <row r="43" spans="2:53" x14ac:dyDescent="0.2">
       <c r="B43" s="17" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="D43" s="15"/>
       <c r="E43" s="15"/>
@@ -7296,10 +7445,10 @@
       <c r="AJ43" s="15"/>
       <c r="AK43" s="15"/>
       <c r="AL43" s="15"/>
-      <c r="AM43" s="15" t="s">
-        <v>156</v>
-      </c>
-      <c r="AN43" s="15"/>
+      <c r="AM43" s="15"/>
+      <c r="AN43" s="15" t="s">
+        <v>155</v>
+      </c>
       <c r="AO43" s="15"/>
       <c r="AP43" s="15"/>
       <c r="AQ43" s="15"/>
@@ -7312,13 +7461,14 @@
       <c r="AX43" s="15"/>
       <c r="AY43" s="15"/>
       <c r="AZ43" s="15"/>
-    </row>
-    <row r="44" spans="2:52" x14ac:dyDescent="0.2">
+      <c r="BA43" s="15"/>
+    </row>
+    <row r="44" spans="2:53" x14ac:dyDescent="0.2">
       <c r="B44" s="17" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="D44" s="15"/>
       <c r="E44" s="15"/>
@@ -7355,10 +7505,10 @@
       <c r="AJ44" s="15"/>
       <c r="AK44" s="15"/>
       <c r="AL44" s="15"/>
-      <c r="AM44" s="15" t="s">
-        <v>156</v>
-      </c>
-      <c r="AN44" s="15"/>
+      <c r="AM44" s="15"/>
+      <c r="AN44" s="15" t="s">
+        <v>155</v>
+      </c>
       <c r="AO44" s="15"/>
       <c r="AP44" s="15"/>
       <c r="AQ44" s="15"/>
@@ -7371,13 +7521,14 @@
       <c r="AX44" s="15"/>
       <c r="AY44" s="15"/>
       <c r="AZ44" s="15"/>
-    </row>
-    <row r="45" spans="2:52" x14ac:dyDescent="0.2">
+      <c r="BA44" s="15"/>
+    </row>
+    <row r="45" spans="2:53" x14ac:dyDescent="0.2">
       <c r="B45" s="17" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D45" s="15"/>
       <c r="E45" s="15"/>
@@ -7415,30 +7566,29 @@
       <c r="AK45" s="15"/>
       <c r="AL45" s="15"/>
       <c r="AM45" s="15"/>
-      <c r="AN45" s="15"/>
+      <c r="AN45" s="15" t="s">
+        <v>155</v>
+      </c>
       <c r="AO45" s="15"/>
       <c r="AP45" s="15"/>
       <c r="AQ45" s="15"/>
       <c r="AR45" s="15"/>
-      <c r="AS45" s="15" t="s">
-        <v>157</v>
-      </c>
-      <c r="AT45" s="15" t="s">
-        <v>157</v>
-      </c>
+      <c r="AS45" s="15"/>
+      <c r="AT45" s="15"/>
       <c r="AU45" s="15"/>
       <c r="AV45" s="15"/>
       <c r="AW45" s="15"/>
       <c r="AX45" s="15"/>
       <c r="AY45" s="15"/>
       <c r="AZ45" s="15"/>
-    </row>
-    <row r="46" spans="2:52" x14ac:dyDescent="0.2">
+      <c r="BA45" s="15"/>
+    </row>
+    <row r="46" spans="2:53" x14ac:dyDescent="0.2">
       <c r="B46" s="17" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D46" s="15"/>
       <c r="E46" s="15"/>
@@ -7480,24 +7630,27 @@
       <c r="AO46" s="15"/>
       <c r="AP46" s="15"/>
       <c r="AQ46" s="15"/>
-      <c r="AR46" s="15" t="s">
+      <c r="AR46" s="15"/>
+      <c r="AS46" s="15"/>
+      <c r="AT46" s="15" t="s">
         <v>156</v>
       </c>
-      <c r="AS46" s="15"/>
-      <c r="AT46" s="15"/>
-      <c r="AU46" s="15"/>
+      <c r="AU46" s="15" t="s">
+        <v>156</v>
+      </c>
       <c r="AV46" s="15"/>
       <c r="AW46" s="15"/>
       <c r="AX46" s="15"/>
       <c r="AY46" s="15"/>
       <c r="AZ46" s="15"/>
-    </row>
-    <row r="47" spans="2:52" x14ac:dyDescent="0.2">
+      <c r="BA46" s="15"/>
+    </row>
+    <row r="47" spans="2:53" x14ac:dyDescent="0.2">
       <c r="B47" s="17" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D47" s="15"/>
       <c r="E47" s="15"/>
@@ -7539,10 +7692,10 @@
       <c r="AO47" s="15"/>
       <c r="AP47" s="15"/>
       <c r="AQ47" s="15"/>
-      <c r="AR47" s="15" t="s">
-        <v>156</v>
-      </c>
-      <c r="AS47" s="15"/>
+      <c r="AR47" s="15"/>
+      <c r="AS47" s="15" t="s">
+        <v>155</v>
+      </c>
       <c r="AT47" s="15"/>
       <c r="AU47" s="15"/>
       <c r="AV47" s="15"/>
@@ -7550,13 +7703,14 @@
       <c r="AX47" s="15"/>
       <c r="AY47" s="15"/>
       <c r="AZ47" s="15"/>
-    </row>
-    <row r="48" spans="2:52" x14ac:dyDescent="0.2">
+      <c r="BA47" s="15"/>
+    </row>
+    <row r="48" spans="2:53" x14ac:dyDescent="0.2">
       <c r="B48" s="17" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D48" s="15"/>
       <c r="E48" s="15"/>
@@ -7599,25 +7753,24 @@
       <c r="AP48" s="15"/>
       <c r="AQ48" s="15"/>
       <c r="AR48" s="15"/>
-      <c r="AS48" s="15"/>
+      <c r="AS48" s="15" t="s">
+        <v>155</v>
+      </c>
       <c r="AT48" s="15"/>
       <c r="AU48" s="15"/>
-      <c r="AV48" s="15" t="s">
-        <v>157</v>
-      </c>
-      <c r="AW48" s="15" t="s">
-        <v>157</v>
-      </c>
+      <c r="AV48" s="15"/>
+      <c r="AW48" s="15"/>
       <c r="AX48" s="15"/>
       <c r="AY48" s="15"/>
       <c r="AZ48" s="15"/>
-    </row>
-    <row r="49" spans="2:52" x14ac:dyDescent="0.2">
+      <c r="BA48" s="15"/>
+    </row>
+    <row r="49" spans="2:53" x14ac:dyDescent="0.2">
       <c r="B49" s="17" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D49" s="15"/>
       <c r="E49" s="15"/>
@@ -7662,21 +7815,24 @@
       <c r="AR49" s="15"/>
       <c r="AS49" s="15"/>
       <c r="AT49" s="15"/>
-      <c r="AU49" s="15" t="s">
+      <c r="AU49" s="15"/>
+      <c r="AV49" s="15"/>
+      <c r="AW49" s="15" t="s">
         <v>156</v>
       </c>
-      <c r="AV49" s="15"/>
-      <c r="AW49" s="15"/>
-      <c r="AX49" s="15"/>
+      <c r="AX49" s="15" t="s">
+        <v>156</v>
+      </c>
       <c r="AY49" s="15"/>
       <c r="AZ49" s="15"/>
-    </row>
-    <row r="50" spans="2:52" x14ac:dyDescent="0.2">
+      <c r="BA49" s="15"/>
+    </row>
+    <row r="50" spans="2:53" x14ac:dyDescent="0.2">
       <c r="B50" s="17" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="D50" s="15"/>
       <c r="E50" s="15"/>
@@ -7721,31 +7877,26 @@
       <c r="AR50" s="15"/>
       <c r="AS50" s="15"/>
       <c r="AT50" s="15"/>
-      <c r="AU50" s="15" t="s">
-        <v>156</v>
-      </c>
-      <c r="AV50" s="15"/>
+      <c r="AU50" s="15"/>
+      <c r="AV50" s="15" t="s">
+        <v>155</v>
+      </c>
       <c r="AW50" s="15"/>
       <c r="AX50" s="15"/>
       <c r="AY50" s="15"/>
       <c r="AZ50" s="15"/>
-    </row>
-    <row r="51" spans="2:52" x14ac:dyDescent="0.2">
+      <c r="BA50" s="15"/>
+    </row>
+    <row r="51" spans="2:53" x14ac:dyDescent="0.2">
       <c r="B51" s="17" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>149</v>
-      </c>
-      <c r="D51" s="15" t="s">
-        <v>157</v>
-      </c>
-      <c r="E51" s="15" t="s">
-        <v>157</v>
-      </c>
-      <c r="F51" s="15" t="s">
-        <v>157</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="D51" s="15"/>
+      <c r="E51" s="15"/>
+      <c r="F51" s="15"/>
       <c r="G51" s="15"/>
       <c r="H51" s="15"/>
       <c r="I51" s="15"/>
@@ -7777,9 +7928,7 @@
       <c r="AI51" s="15"/>
       <c r="AJ51" s="15"/>
       <c r="AK51" s="15"/>
-      <c r="AL51" s="15" t="s">
-        <v>157</v>
-      </c>
+      <c r="AL51" s="15"/>
       <c r="AM51" s="15"/>
       <c r="AN51" s="15"/>
       <c r="AO51" s="15"/>
@@ -7789,26 +7938,31 @@
       <c r="AS51" s="15"/>
       <c r="AT51" s="15"/>
       <c r="AU51" s="15"/>
-      <c r="AV51" s="15"/>
+      <c r="AV51" s="15" t="s">
+        <v>155</v>
+      </c>
       <c r="AW51" s="15"/>
       <c r="AX51" s="15"/>
-      <c r="AY51" s="15" t="s">
-        <v>157</v>
-      </c>
-      <c r="AZ51" s="15" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="52" spans="2:52" x14ac:dyDescent="0.2">
+      <c r="AY51" s="15"/>
+      <c r="AZ51" s="15"/>
+      <c r="BA51" s="15"/>
+    </row>
+    <row r="52" spans="2:53" x14ac:dyDescent="0.2">
       <c r="B52" s="17" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="D52" s="15"/>
-      <c r="E52" s="15"/>
-      <c r="F52" s="15"/>
+        <v>148</v>
+      </c>
+      <c r="D52" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="E52" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="F52" s="15" t="s">
+        <v>156</v>
+      </c>
       <c r="G52" s="15"/>
       <c r="H52" s="15"/>
       <c r="I52" s="15"/>
@@ -7841,7 +7995,9 @@
       <c r="AJ52" s="15"/>
       <c r="AK52" s="15"/>
       <c r="AL52" s="15"/>
-      <c r="AM52" s="15"/>
+      <c r="AM52" s="15" t="s">
+        <v>156</v>
+      </c>
       <c r="AN52" s="15"/>
       <c r="AO52" s="15"/>
       <c r="AP52" s="15"/>
@@ -7852,18 +8008,21 @@
       <c r="AU52" s="15"/>
       <c r="AV52" s="15"/>
       <c r="AW52" s="15"/>
-      <c r="AX52" s="15" t="s">
+      <c r="AX52" s="15"/>
+      <c r="AY52" s="15"/>
+      <c r="AZ52" s="15" t="s">
         <v>156</v>
       </c>
-      <c r="AY52" s="15"/>
-      <c r="AZ52" s="15"/>
-    </row>
-    <row r="53" spans="2:52" x14ac:dyDescent="0.2">
+      <c r="BA52" s="15" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="53" spans="2:53" x14ac:dyDescent="0.2">
       <c r="B53" s="17" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D53" s="15"/>
       <c r="E53" s="15"/>
@@ -7911,813 +8070,890 @@
       <c r="AU53" s="15"/>
       <c r="AV53" s="15"/>
       <c r="AW53" s="15"/>
-      <c r="AX53" s="15" t="s">
-        <v>156</v>
-      </c>
-      <c r="AY53" s="15"/>
+      <c r="AX53" s="15"/>
+      <c r="AY53" s="15" t="s">
+        <v>155</v>
+      </c>
       <c r="AZ53" s="15"/>
-    </row>
-    <row r="54" spans="2:52" x14ac:dyDescent="0.2">
-      <c r="D54" s="14"/>
+      <c r="BA53" s="15"/>
+    </row>
+    <row r="54" spans="2:53" x14ac:dyDescent="0.2">
+      <c r="B54" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="C54" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="D54" s="15"/>
+      <c r="E54" s="15"/>
+      <c r="F54" s="15"/>
+      <c r="G54" s="15"/>
+      <c r="H54" s="15"/>
+      <c r="I54" s="15"/>
+      <c r="J54" s="15"/>
+      <c r="K54" s="15"/>
+      <c r="L54" s="15"/>
+      <c r="M54" s="15"/>
+      <c r="N54" s="15"/>
+      <c r="O54" s="15"/>
+      <c r="P54" s="15"/>
+      <c r="Q54" s="15"/>
+      <c r="R54" s="15"/>
+      <c r="S54" s="15"/>
+      <c r="T54" s="15"/>
+      <c r="U54" s="15"/>
+      <c r="V54" s="15"/>
+      <c r="W54" s="15"/>
+      <c r="X54" s="15"/>
+      <c r="Y54" s="15"/>
+      <c r="Z54" s="15"/>
+      <c r="AA54" s="15"/>
+      <c r="AB54" s="15"/>
+      <c r="AC54" s="15"/>
+      <c r="AD54" s="15"/>
+      <c r="AE54" s="15"/>
+      <c r="AF54" s="15"/>
+      <c r="AG54" s="15"/>
+      <c r="AH54" s="15"/>
+      <c r="AI54" s="15"/>
+      <c r="AJ54" s="15"/>
+      <c r="AK54" s="15"/>
+      <c r="AL54" s="15"/>
+      <c r="AM54" s="15"/>
+      <c r="AN54" s="15"/>
+      <c r="AO54" s="15"/>
+      <c r="AP54" s="15"/>
+      <c r="AQ54" s="15"/>
+      <c r="AR54" s="15"/>
+      <c r="AS54" s="15"/>
+      <c r="AT54" s="15"/>
+      <c r="AU54" s="15"/>
+      <c r="AV54" s="15"/>
+      <c r="AW54" s="15"/>
+      <c r="AX54" s="15"/>
+      <c r="AY54" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="AZ54" s="15"/>
+      <c r="BA54" s="15"/>
+    </row>
+    <row r="55" spans="2:53" x14ac:dyDescent="0.2">
+      <c r="D55" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="D2:H2"/>
   </mergeCells>
   <conditionalFormatting sqref="D4">
+    <cfRule type="expression" dxfId="150" priority="151">
+      <formula>AND(COLUMN()&gt;2,MOD(COLUMN(),2)=0)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4">
+    <cfRule type="expression" dxfId="149" priority="150">
+      <formula>AND(COLUMN()&gt;2,MOD(COLUMN(),2)=0)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F4">
+    <cfRule type="expression" dxfId="148" priority="149">
+      <formula>AND(COLUMN()&gt;2,MOD(COLUMN(),2)=0)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G4">
     <cfRule type="expression" dxfId="147" priority="148">
       <formula>AND(COLUMN()&gt;2,MOD(COLUMN(),2)=0)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E4">
+  <conditionalFormatting sqref="H4">
     <cfRule type="expression" dxfId="146" priority="147">
       <formula>AND(COLUMN()&gt;2,MOD(COLUMN(),2)=0)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F4">
+  <conditionalFormatting sqref="I4">
     <cfRule type="expression" dxfId="145" priority="146">
       <formula>AND(COLUMN()&gt;2,MOD(COLUMN(),2)=0)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G4">
+  <conditionalFormatting sqref="J4">
     <cfRule type="expression" dxfId="144" priority="145">
       <formula>AND(COLUMN()&gt;2,MOD(COLUMN(),2)=0)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H4">
+  <conditionalFormatting sqref="K4">
     <cfRule type="expression" dxfId="143" priority="144">
       <formula>AND(COLUMN()&gt;2,MOD(COLUMN(),2)=0)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I4">
+  <conditionalFormatting sqref="L4">
     <cfRule type="expression" dxfId="142" priority="143">
       <formula>AND(COLUMN()&gt;2,MOD(COLUMN(),2)=0)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J4">
+  <conditionalFormatting sqref="M4">
     <cfRule type="expression" dxfId="141" priority="142">
       <formula>AND(COLUMN()&gt;2,MOD(COLUMN(),2)=0)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K4">
+  <conditionalFormatting sqref="N4">
     <cfRule type="expression" dxfId="140" priority="141">
       <formula>AND(COLUMN()&gt;2,MOD(COLUMN(),2)=0)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L4">
+  <conditionalFormatting sqref="O4">
     <cfRule type="expression" dxfId="139" priority="140">
       <formula>AND(COLUMN()&gt;2,MOD(COLUMN(),2)=0)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M4">
+  <conditionalFormatting sqref="P4">
     <cfRule type="expression" dxfId="138" priority="139">
       <formula>AND(COLUMN()&gt;2,MOD(COLUMN(),2)=0)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N4">
+  <conditionalFormatting sqref="Q4">
     <cfRule type="expression" dxfId="137" priority="138">
       <formula>AND(COLUMN()&gt;2,MOD(COLUMN(),2)=0)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O4">
+  <conditionalFormatting sqref="R4">
     <cfRule type="expression" dxfId="136" priority="137">
       <formula>AND(COLUMN()&gt;2,MOD(COLUMN(),2)=0)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P4">
+  <conditionalFormatting sqref="S4">
     <cfRule type="expression" dxfId="135" priority="136">
       <formula>AND(COLUMN()&gt;2,MOD(COLUMN(),2)=0)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q4">
+  <conditionalFormatting sqref="T4">
     <cfRule type="expression" dxfId="134" priority="135">
       <formula>AND(COLUMN()&gt;2,MOD(COLUMN(),2)=0)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R4">
+  <conditionalFormatting sqref="U4">
     <cfRule type="expression" dxfId="133" priority="134">
       <formula>AND(COLUMN()&gt;2,MOD(COLUMN(),2)=0)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S4">
+  <conditionalFormatting sqref="V4">
     <cfRule type="expression" dxfId="132" priority="133">
       <formula>AND(COLUMN()&gt;2,MOD(COLUMN(),2)=0)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T4">
+  <conditionalFormatting sqref="W4">
     <cfRule type="expression" dxfId="131" priority="132">
       <formula>AND(COLUMN()&gt;2,MOD(COLUMN(),2)=0)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U4">
+  <conditionalFormatting sqref="X4">
     <cfRule type="expression" dxfId="130" priority="131">
       <formula>AND(COLUMN()&gt;2,MOD(COLUMN(),2)=0)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V4">
+  <conditionalFormatting sqref="Y4">
     <cfRule type="expression" dxfId="129" priority="130">
       <formula>AND(COLUMN()&gt;2,MOD(COLUMN(),2)=0)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W4">
+  <conditionalFormatting sqref="Z4">
     <cfRule type="expression" dxfId="128" priority="129">
       <formula>AND(COLUMN()&gt;2,MOD(COLUMN(),2)=0)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X4">
+  <conditionalFormatting sqref="AA4">
     <cfRule type="expression" dxfId="127" priority="128">
       <formula>AND(COLUMN()&gt;2,MOD(COLUMN(),2)=0)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y4">
+  <conditionalFormatting sqref="AB4">
     <cfRule type="expression" dxfId="126" priority="127">
       <formula>AND(COLUMN()&gt;2,MOD(COLUMN(),2)=0)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z4">
+  <conditionalFormatting sqref="AC4">
     <cfRule type="expression" dxfId="125" priority="126">
       <formula>AND(COLUMN()&gt;2,MOD(COLUMN(),2)=0)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AA4">
+  <conditionalFormatting sqref="AD4">
     <cfRule type="expression" dxfId="124" priority="125">
       <formula>AND(COLUMN()&gt;2,MOD(COLUMN(),2)=0)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB4">
+  <conditionalFormatting sqref="AE4">
     <cfRule type="expression" dxfId="123" priority="124">
       <formula>AND(COLUMN()&gt;2,MOD(COLUMN(),2)=0)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AC4">
+  <conditionalFormatting sqref="AF4">
     <cfRule type="expression" dxfId="122" priority="123">
       <formula>AND(COLUMN()&gt;2,MOD(COLUMN(),2)=0)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AD4">
+  <conditionalFormatting sqref="AG4">
     <cfRule type="expression" dxfId="121" priority="122">
       <formula>AND(COLUMN()&gt;2,MOD(COLUMN(),2)=0)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE4">
+  <conditionalFormatting sqref="AH4">
     <cfRule type="expression" dxfId="120" priority="121">
       <formula>AND(COLUMN()&gt;2,MOD(COLUMN(),2)=0)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF4">
+  <conditionalFormatting sqref="AI4">
     <cfRule type="expression" dxfId="119" priority="120">
       <formula>AND(COLUMN()&gt;2,MOD(COLUMN(),2)=0)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG4">
+  <conditionalFormatting sqref="AJ4">
     <cfRule type="expression" dxfId="118" priority="119">
       <formula>AND(COLUMN()&gt;2,MOD(COLUMN(),2)=0)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AH4">
+  <conditionalFormatting sqref="AK4">
     <cfRule type="expression" dxfId="117" priority="118">
       <formula>AND(COLUMN()&gt;2,MOD(COLUMN(),2)=0)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AI4">
+  <conditionalFormatting sqref="AL4">
     <cfRule type="expression" dxfId="116" priority="117">
       <formula>AND(COLUMN()&gt;2,MOD(COLUMN(),2)=0)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AJ4">
+  <conditionalFormatting sqref="AM4">
     <cfRule type="expression" dxfId="115" priority="116">
       <formula>AND(COLUMN()&gt;2,MOD(COLUMN(),2)=0)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AK4">
+  <conditionalFormatting sqref="AN4">
     <cfRule type="expression" dxfId="114" priority="115">
       <formula>AND(COLUMN()&gt;2,MOD(COLUMN(),2)=0)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AL4">
+  <conditionalFormatting sqref="AO4">
     <cfRule type="expression" dxfId="113" priority="114">
       <formula>AND(COLUMN()&gt;2,MOD(COLUMN(),2)=0)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AM4">
+  <conditionalFormatting sqref="AP4">
     <cfRule type="expression" dxfId="112" priority="113">
       <formula>AND(COLUMN()&gt;2,MOD(COLUMN(),2)=0)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AN4">
+  <conditionalFormatting sqref="AQ4">
     <cfRule type="expression" dxfId="111" priority="112">
       <formula>AND(COLUMN()&gt;2,MOD(COLUMN(),2)=0)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AO4">
+  <conditionalFormatting sqref="AR4">
     <cfRule type="expression" dxfId="110" priority="111">
       <formula>AND(COLUMN()&gt;2,MOD(COLUMN(),2)=0)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AP4">
+  <conditionalFormatting sqref="AS4">
     <cfRule type="expression" dxfId="109" priority="110">
       <formula>AND(COLUMN()&gt;2,MOD(COLUMN(),2)=0)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AQ4">
+  <conditionalFormatting sqref="AT4">
     <cfRule type="expression" dxfId="108" priority="109">
       <formula>AND(COLUMN()&gt;2,MOD(COLUMN(),2)=0)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AR4">
+  <conditionalFormatting sqref="AU4">
     <cfRule type="expression" dxfId="107" priority="108">
       <formula>AND(COLUMN()&gt;2,MOD(COLUMN(),2)=0)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AS4">
+  <conditionalFormatting sqref="AV4">
     <cfRule type="expression" dxfId="106" priority="107">
       <formula>AND(COLUMN()&gt;2,MOD(COLUMN(),2)=0)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AT4">
+  <conditionalFormatting sqref="AW4">
     <cfRule type="expression" dxfId="105" priority="106">
       <formula>AND(COLUMN()&gt;2,MOD(COLUMN(),2)=0)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AU4">
+  <conditionalFormatting sqref="AX4">
     <cfRule type="expression" dxfId="104" priority="105">
       <formula>AND(COLUMN()&gt;2,MOD(COLUMN(),2)=0)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AV4">
+  <conditionalFormatting sqref="AY4">
     <cfRule type="expression" dxfId="103" priority="104">
       <formula>AND(COLUMN()&gt;2,MOD(COLUMN(),2)=0)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AW4">
+  <conditionalFormatting sqref="AZ4">
     <cfRule type="expression" dxfId="102" priority="103">
       <formula>AND(COLUMN()&gt;2,MOD(COLUMN(),2)=0)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AX4">
+  <conditionalFormatting sqref="BA4">
     <cfRule type="expression" dxfId="101" priority="102">
       <formula>AND(COLUMN()&gt;2,MOD(COLUMN(),2)=0)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AY4">
+  <conditionalFormatting sqref="B5:C5">
     <cfRule type="expression" dxfId="100" priority="101">
-      <formula>AND(COLUMN()&gt;2,MOD(COLUMN(),2)=0)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AZ4">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D5:BA5">
     <cfRule type="expression" dxfId="99" priority="100">
-      <formula>AND(COLUMN()&gt;2,MOD(COLUMN(),2)=0)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B5:C5">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B6:C6">
     <cfRule type="expression" dxfId="98" priority="99">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D5:AZ5">
+  <conditionalFormatting sqref="D6:BA6">
     <cfRule type="expression" dxfId="97" priority="98">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B6:C6">
+  <conditionalFormatting sqref="B7:C7">
     <cfRule type="expression" dxfId="96" priority="97">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D6:AZ6">
+  <conditionalFormatting sqref="D7:BA7">
     <cfRule type="expression" dxfId="95" priority="96">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B7:C7">
+  <conditionalFormatting sqref="B8:C8">
     <cfRule type="expression" dxfId="94" priority="95">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D7:AZ7">
+  <conditionalFormatting sqref="D8:BA8">
     <cfRule type="expression" dxfId="93" priority="94">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B8:C8">
+  <conditionalFormatting sqref="B9:C9">
     <cfRule type="expression" dxfId="92" priority="93">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D8:AZ8">
+  <conditionalFormatting sqref="D9:BA9">
     <cfRule type="expression" dxfId="91" priority="92">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B9:C9">
+  <conditionalFormatting sqref="B10:C10">
     <cfRule type="expression" dxfId="90" priority="91">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D9:AZ9">
+  <conditionalFormatting sqref="D10:BA10">
     <cfRule type="expression" dxfId="89" priority="90">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B10:C10">
+  <conditionalFormatting sqref="B11:C11">
     <cfRule type="expression" dxfId="88" priority="89">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D10:AZ10">
+  <conditionalFormatting sqref="D11:BA11">
     <cfRule type="expression" dxfId="87" priority="88">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B11:C11">
+  <conditionalFormatting sqref="B12:C12">
     <cfRule type="expression" dxfId="86" priority="87">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D11:AZ11">
+  <conditionalFormatting sqref="D12:BA12">
     <cfRule type="expression" dxfId="85" priority="86">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B12:C12">
+  <conditionalFormatting sqref="B13:C13">
     <cfRule type="expression" dxfId="84" priority="85">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D12:AZ12">
+  <conditionalFormatting sqref="D13:BA13">
     <cfRule type="expression" dxfId="83" priority="84">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B13:C13">
+  <conditionalFormatting sqref="B14:C14">
     <cfRule type="expression" dxfId="82" priority="83">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D13:AZ13">
+  <conditionalFormatting sqref="D14:BA14">
     <cfRule type="expression" dxfId="81" priority="82">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B14:C14">
+  <conditionalFormatting sqref="B15:C15">
     <cfRule type="expression" dxfId="80" priority="81">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D14:AZ14">
+  <conditionalFormatting sqref="D15:BA15">
     <cfRule type="expression" dxfId="79" priority="80">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B15:C15">
+  <conditionalFormatting sqref="B16:C16">
     <cfRule type="expression" dxfId="78" priority="79">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D15:AZ15">
+  <conditionalFormatting sqref="D16:BA16">
     <cfRule type="expression" dxfId="77" priority="78">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B16:C16">
+  <conditionalFormatting sqref="B17:C17">
     <cfRule type="expression" dxfId="76" priority="77">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D16:AZ16">
+  <conditionalFormatting sqref="D17:BA17">
     <cfRule type="expression" dxfId="75" priority="76">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B17:C17">
+  <conditionalFormatting sqref="B18:C18">
     <cfRule type="expression" dxfId="74" priority="75">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D17:AZ17">
+  <conditionalFormatting sqref="D18:BA18">
     <cfRule type="expression" dxfId="73" priority="74">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B18:C18">
+  <conditionalFormatting sqref="B19:C19">
     <cfRule type="expression" dxfId="72" priority="73">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D18:AZ18">
+  <conditionalFormatting sqref="D19:BA19">
     <cfRule type="expression" dxfId="71" priority="72">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B19:C19">
+  <conditionalFormatting sqref="B20:C20">
     <cfRule type="expression" dxfId="70" priority="71">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D19:AZ19">
+  <conditionalFormatting sqref="D20:BA20">
     <cfRule type="expression" dxfId="69" priority="70">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B20:C20">
+  <conditionalFormatting sqref="B21:C21">
     <cfRule type="expression" dxfId="68" priority="69">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D20:AZ20">
+  <conditionalFormatting sqref="D21:BA21">
     <cfRule type="expression" dxfId="67" priority="68">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B21:C21">
+  <conditionalFormatting sqref="B22:C22">
     <cfRule type="expression" dxfId="66" priority="67">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D21:AZ21">
+  <conditionalFormatting sqref="D22:BA22">
     <cfRule type="expression" dxfId="65" priority="66">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B22:C22">
+  <conditionalFormatting sqref="B23:C23">
     <cfRule type="expression" dxfId="64" priority="65">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D22:AZ22">
+  <conditionalFormatting sqref="D23:BA23">
     <cfRule type="expression" dxfId="63" priority="64">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B23:C23">
+  <conditionalFormatting sqref="B24:C24">
     <cfRule type="expression" dxfId="62" priority="63">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D23:AZ23">
+  <conditionalFormatting sqref="D24:BA24">
     <cfRule type="expression" dxfId="61" priority="62">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B24:C24">
+  <conditionalFormatting sqref="B25:C25">
     <cfRule type="expression" dxfId="60" priority="61">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D24:AZ24">
+  <conditionalFormatting sqref="D25:BA25">
     <cfRule type="expression" dxfId="59" priority="60">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B25:C25">
+  <conditionalFormatting sqref="B26:C26">
     <cfRule type="expression" dxfId="58" priority="59">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D25:AZ25">
+  <conditionalFormatting sqref="D26:BA26">
     <cfRule type="expression" dxfId="57" priority="58">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B26:C26">
+  <conditionalFormatting sqref="B27:C27">
     <cfRule type="expression" dxfId="56" priority="57">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D26:AZ26">
+  <conditionalFormatting sqref="D27:BA27">
     <cfRule type="expression" dxfId="55" priority="56">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B27:C27">
+  <conditionalFormatting sqref="B28:C28">
     <cfRule type="expression" dxfId="54" priority="55">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D27:AZ27">
+  <conditionalFormatting sqref="D28:BA28">
     <cfRule type="expression" dxfId="53" priority="54">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B28:C28">
+  <conditionalFormatting sqref="B29:C29">
     <cfRule type="expression" dxfId="52" priority="53">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D28:AZ28">
+  <conditionalFormatting sqref="D29:BA29">
     <cfRule type="expression" dxfId="51" priority="52">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B29:C29">
+  <conditionalFormatting sqref="B30:C30">
     <cfRule type="expression" dxfId="50" priority="51">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D29:AZ29">
+  <conditionalFormatting sqref="D30:BA30">
     <cfRule type="expression" dxfId="49" priority="50">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B30:C30">
+  <conditionalFormatting sqref="B31:C31">
     <cfRule type="expression" dxfId="48" priority="49">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D30:AZ30">
+  <conditionalFormatting sqref="D31:BA31">
     <cfRule type="expression" dxfId="47" priority="48">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B31:C31">
+  <conditionalFormatting sqref="B32:C32">
     <cfRule type="expression" dxfId="46" priority="47">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D31:AZ31">
+  <conditionalFormatting sqref="D32:BA32">
     <cfRule type="expression" dxfId="45" priority="46">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B32:C32">
+  <conditionalFormatting sqref="B33:C33">
     <cfRule type="expression" dxfId="44" priority="45">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D32:AZ32">
+  <conditionalFormatting sqref="D33:BA33">
     <cfRule type="expression" dxfId="43" priority="44">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B33:C33">
+  <conditionalFormatting sqref="B34:C34">
     <cfRule type="expression" dxfId="42" priority="43">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D33:AZ33">
+  <conditionalFormatting sqref="D34:BA34">
     <cfRule type="expression" dxfId="41" priority="42">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B34:C34">
+  <conditionalFormatting sqref="B35:C35">
     <cfRule type="expression" dxfId="40" priority="41">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D34:AZ34">
+  <conditionalFormatting sqref="D35:BA35">
     <cfRule type="expression" dxfId="39" priority="40">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B35:C35">
+  <conditionalFormatting sqref="B36:C36">
     <cfRule type="expression" dxfId="38" priority="39">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D35:AZ35">
+  <conditionalFormatting sqref="D36:BA36">
     <cfRule type="expression" dxfId="37" priority="38">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B36:C36">
+  <conditionalFormatting sqref="B37:C37">
     <cfRule type="expression" dxfId="36" priority="37">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D36:AZ36">
+  <conditionalFormatting sqref="D37:BA37">
     <cfRule type="expression" dxfId="35" priority="36">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B37:C37">
+  <conditionalFormatting sqref="B38:C38">
     <cfRule type="expression" dxfId="34" priority="35">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D37:AZ37">
+  <conditionalFormatting sqref="D38:BA38">
     <cfRule type="expression" dxfId="33" priority="34">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B38:C38">
+  <conditionalFormatting sqref="B39:C39">
     <cfRule type="expression" dxfId="32" priority="33">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D38:AZ38">
+  <conditionalFormatting sqref="D39:BA39">
     <cfRule type="expression" dxfId="31" priority="32">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B39:C39">
+  <conditionalFormatting sqref="B40:C40">
     <cfRule type="expression" dxfId="30" priority="31">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D39:AZ39">
+  <conditionalFormatting sqref="D40:BA40">
     <cfRule type="expression" dxfId="29" priority="30">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B40:C40">
+  <conditionalFormatting sqref="B41:C41">
     <cfRule type="expression" dxfId="28" priority="29">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D40:AZ40">
+  <conditionalFormatting sqref="D41:BA41">
     <cfRule type="expression" dxfId="27" priority="28">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B41:C41">
+  <conditionalFormatting sqref="B42:C42">
     <cfRule type="expression" dxfId="26" priority="27">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D41:AZ41">
+  <conditionalFormatting sqref="D42:BA42">
     <cfRule type="expression" dxfId="25" priority="26">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B42:C42">
+  <conditionalFormatting sqref="B43:C43">
     <cfRule type="expression" dxfId="24" priority="25">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D42:AZ42">
+  <conditionalFormatting sqref="D43:BA43">
     <cfRule type="expression" dxfId="23" priority="24">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B43:C43">
+  <conditionalFormatting sqref="B44:C44">
     <cfRule type="expression" dxfId="22" priority="23">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D43:AZ43">
+  <conditionalFormatting sqref="D44:BA44">
     <cfRule type="expression" dxfId="21" priority="22">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B44:C44">
+  <conditionalFormatting sqref="B45:C45">
     <cfRule type="expression" dxfId="20" priority="21">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D44:AZ44">
+  <conditionalFormatting sqref="D45:BA45">
     <cfRule type="expression" dxfId="19" priority="20">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B45:C45">
+  <conditionalFormatting sqref="B46:C46">
     <cfRule type="expression" dxfId="18" priority="19">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D45:AZ45">
+  <conditionalFormatting sqref="D46:BA46">
     <cfRule type="expression" dxfId="17" priority="18">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B46:C46">
+  <conditionalFormatting sqref="B47:C47">
     <cfRule type="expression" dxfId="16" priority="17">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D46:AZ46">
+  <conditionalFormatting sqref="D47:BA47">
     <cfRule type="expression" dxfId="15" priority="16">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B47:C47">
+  <conditionalFormatting sqref="B48:C48">
     <cfRule type="expression" dxfId="14" priority="15">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D47:AZ47">
+  <conditionalFormatting sqref="D48:BA48">
     <cfRule type="expression" dxfId="13" priority="14">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B48:C48">
+  <conditionalFormatting sqref="B49:C49">
     <cfRule type="expression" dxfId="12" priority="13">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D48:AZ48">
+  <conditionalFormatting sqref="D49:BA49">
     <cfRule type="expression" dxfId="11" priority="12">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B49:C49">
+  <conditionalFormatting sqref="B50:C50">
     <cfRule type="expression" dxfId="10" priority="11">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D49:AZ49">
+  <conditionalFormatting sqref="D50:BA50">
     <cfRule type="expression" dxfId="9" priority="10">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B50:C50">
+  <conditionalFormatting sqref="B51:C51">
     <cfRule type="expression" dxfId="8" priority="9">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D50:AZ50">
+  <conditionalFormatting sqref="D51:BA51">
     <cfRule type="expression" dxfId="7" priority="8">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B51:C51">
+  <conditionalFormatting sqref="B52:C52">
     <cfRule type="expression" dxfId="6" priority="7">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D51:AZ51">
+  <conditionalFormatting sqref="D52:BA52">
     <cfRule type="expression" dxfId="5" priority="6">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B52:C52">
+  <conditionalFormatting sqref="B53:C53">
     <cfRule type="expression" dxfId="4" priority="5">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D52:AZ52">
+  <conditionalFormatting sqref="D53:BA53">
     <cfRule type="expression" dxfId="3" priority="4">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B53:C53">
+  <conditionalFormatting sqref="B54:C54">
     <cfRule type="expression" dxfId="2" priority="3">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D53:AZ53">
+  <conditionalFormatting sqref="D54:BA54">
     <cfRule type="expression" dxfId="1" priority="2">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D5:AZ53">
+  <conditionalFormatting sqref="D5:BA54">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>IF(COLUMN()=ROW()-1,TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="B5" r:id="rId1" tooltip="cc://D:\myFMI\3rd year\sem2\SRA\homework\hw3\misc\CaseComplete\SuperPlanner.ucd?REQ-1" xr:uid="{7DAC8D3E-E822-4915-BEE8-85BEFA5E2E43}"/>
-    <hyperlink ref="B6" r:id="rId2" tooltip="cc://D:\myFMI\3rd year\sem2\SRA\homework\hw3\misc\CaseComplete\SuperPlanner.ucd?REQ-1.1" xr:uid="{DDABE48B-3215-4535-8562-B5AC04B29A32}"/>
-    <hyperlink ref="B7" r:id="rId3" tooltip="cc://D:\myFMI\3rd year\sem2\SRA\homework\hw3\misc\CaseComplete\SuperPlanner.ucd?REQ-1.2" xr:uid="{3BC77545-1DFD-4970-8ABC-18C760A72E87}"/>
-    <hyperlink ref="B8" r:id="rId4" tooltip="cc://D:\myFMI\3rd year\sem2\SRA\homework\hw3\misc\CaseComplete\SuperPlanner.ucd?REQ-2" xr:uid="{2AB113B3-9307-44CE-84F8-4553B2EAC7C8}"/>
-    <hyperlink ref="B9" r:id="rId5" tooltip="cc://D:\myFMI\3rd year\sem2\SRA\homework\hw3\misc\CaseComplete\SuperPlanner.ucd?REQ-2.1" xr:uid="{BE3927F9-BE33-4B5C-87C1-E2E2D488EF3B}"/>
-    <hyperlink ref="B10" r:id="rId6" tooltip="cc://D:\myFMI\3rd year\sem2\SRA\homework\hw3\misc\CaseComplete\SuperPlanner.ucd?REQ-2.2" xr:uid="{37802AF0-26D0-4902-B108-E9BE38A9F051}"/>
-    <hyperlink ref="B11" r:id="rId7" tooltip="cc://D:\myFMI\3rd year\sem2\SRA\homework\hw3\misc\CaseComplete\SuperPlanner.ucd?REQ-3" xr:uid="{CAD5577B-6EE1-4B70-AAAF-63369F7F4504}"/>
-    <hyperlink ref="B12" r:id="rId8" tooltip="cc://D:\myFMI\3rd year\sem2\SRA\homework\hw3\misc\CaseComplete\SuperPlanner.ucd?REQ-4" xr:uid="{E1108DB6-3CD0-4130-9239-76739554F3B6}"/>
-    <hyperlink ref="B13" r:id="rId9" tooltip="cc://D:\myFMI\3rd year\sem2\SRA\homework\hw3\misc\CaseComplete\SuperPlanner.ucd?REQ-4.1" xr:uid="{39C36BA0-B718-461E-ACC1-E4F946F7E6A8}"/>
-    <hyperlink ref="B14" r:id="rId10" tooltip="cc://D:\myFMI\3rd year\sem2\SRA\homework\hw3\misc\CaseComplete\SuperPlanner.ucd?REQ-4.2" xr:uid="{44A32AF0-E57F-4E85-BDE8-5575A510F11B}"/>
-    <hyperlink ref="B15" r:id="rId11" tooltip="cc://D:\myFMI\3rd year\sem2\SRA\homework\hw3\misc\CaseComplete\SuperPlanner.ucd?REQ-4.3" xr:uid="{B0D002C9-02EC-4CB9-8977-7D46CF3CCD3C}"/>
-    <hyperlink ref="B16" r:id="rId12" tooltip="cc://D:\myFMI\3rd year\sem2\SRA\homework\hw3\misc\CaseComplete\SuperPlanner.ucd?REQ-4.4" xr:uid="{B9965EF4-1055-41B5-B587-2E1D9E5897C1}"/>
-    <hyperlink ref="B17" r:id="rId13" tooltip="cc://D:\myFMI\3rd year\sem2\SRA\homework\hw3\misc\CaseComplete\SuperPlanner.ucd?REQ-5" xr:uid="{7AC6F79B-7A4A-47B0-8F2A-78022FC86440}"/>
-    <hyperlink ref="B18" r:id="rId14" tooltip="cc://D:\myFMI\3rd year\sem2\SRA\homework\hw3\misc\CaseComplete\SuperPlanner.ucd?REQ-5.1" xr:uid="{694EC54B-1246-4B87-B2FE-C6E213B68983}"/>
-    <hyperlink ref="B19" r:id="rId15" tooltip="cc://D:\myFMI\3rd year\sem2\SRA\homework\hw3\misc\CaseComplete\SuperPlanner.ucd?REQ-5.2" xr:uid="{89E87554-14D9-4B6D-98B8-BECBB34AE428}"/>
-    <hyperlink ref="B20" r:id="rId16" tooltip="cc://D:\myFMI\3rd year\sem2\SRA\homework\hw3\misc\CaseComplete\SuperPlanner.ucd?REQ-5.3" xr:uid="{9FC9EF15-F259-4B38-971C-EF06075DEC64}"/>
-    <hyperlink ref="B21" r:id="rId17" tooltip="cc://D:\myFMI\3rd year\sem2\SRA\homework\hw3\misc\CaseComplete\SuperPlanner.ucd?REQ-6" xr:uid="{A808BAE8-A19D-47B7-8743-3FFD950413EE}"/>
-    <hyperlink ref="B22" r:id="rId18" tooltip="cc://D:\myFMI\3rd year\sem2\SRA\homework\hw3\misc\CaseComplete\SuperPlanner.ucd?REQ-6.1" xr:uid="{9DF35104-AFD8-434E-B80D-F44A15817146}"/>
-    <hyperlink ref="B23" r:id="rId19" tooltip="cc://D:\myFMI\3rd year\sem2\SRA\homework\hw3\misc\CaseComplete\SuperPlanner.ucd?REQ-7" xr:uid="{382664DE-0E47-40E3-8AC3-A3DBC43F5F6B}"/>
-    <hyperlink ref="B24" r:id="rId20" tooltip="cc://D:\myFMI\3rd year\sem2\SRA\homework\hw3\misc\CaseComplete\SuperPlanner.ucd?REQ-7.1" xr:uid="{EDB9449B-C036-4CB6-A3BA-E1084C8EE8B2}"/>
-    <hyperlink ref="B25" r:id="rId21" tooltip="cc://D:\myFMI\3rd year\sem2\SRA\homework\hw3\misc\CaseComplete\SuperPlanner.ucd?REQ-8" xr:uid="{E6D66772-0DF8-4603-919A-A244ABF80CF1}"/>
-    <hyperlink ref="B26" r:id="rId22" tooltip="cc://D:\myFMI\3rd year\sem2\SRA\homework\hw3\misc\CaseComplete\SuperPlanner.ucd?REQ-8.1" xr:uid="{D6DAF8E7-0CBF-4449-AB76-0B55B49A0F54}"/>
-    <hyperlink ref="B27" r:id="rId23" tooltip="cc://D:\myFMI\3rd year\sem2\SRA\homework\hw3\misc\CaseComplete\SuperPlanner.ucd?REQ-9" xr:uid="{9D368AF4-8A75-4653-81E3-188809D8F948}"/>
-    <hyperlink ref="B28" r:id="rId24" tooltip="cc://D:\myFMI\3rd year\sem2\SRA\homework\hw3\misc\CaseComplete\SuperPlanner.ucd?REQ-10" xr:uid="{F70D1241-F393-4498-8C8B-A1AEB55F582E}"/>
-    <hyperlink ref="B29" r:id="rId25" tooltip="cc://D:\myFMI\3rd year\sem2\SRA\homework\hw3\misc\CaseComplete\SuperPlanner.ucd?REQ-11" xr:uid="{8CACF4CD-899C-4A20-B599-EA975EEBB049}"/>
-    <hyperlink ref="B30" r:id="rId26" tooltip="cc://D:\myFMI\3rd year\sem2\SRA\homework\hw3\misc\CaseComplete\SuperPlanner.ucd?REQ-12" xr:uid="{A6FB316C-98EE-438C-92C8-ECC04AABEF2D}"/>
-    <hyperlink ref="B31" r:id="rId27" tooltip="cc://D:\myFMI\3rd year\sem2\SRA\homework\hw3\misc\CaseComplete\SuperPlanner.ucd?REQ-12.1" xr:uid="{E9E57EB3-7C88-49B2-9604-C6B0AE500E75}"/>
-    <hyperlink ref="B32" r:id="rId28" tooltip="cc://D:\myFMI\3rd year\sem2\SRA\homework\hw3\misc\CaseComplete\SuperPlanner.ucd?REQ-12.2" xr:uid="{E773E368-4AF3-4EB7-AE2F-C710FA08D800}"/>
-    <hyperlink ref="B33" r:id="rId29" tooltip="cc://D:\myFMI\3rd year\sem2\SRA\homework\hw3\misc\CaseComplete\SuperPlanner.ucd?REQ-12.3" xr:uid="{189D3BE0-5D21-46C1-B989-A5A6999D4019}"/>
-    <hyperlink ref="B34" r:id="rId30" tooltip="cc://D:\myFMI\3rd year\sem2\SRA\homework\hw3\misc\CaseComplete\SuperPlanner.ucd?REQ-12.4" xr:uid="{F3CEAA29-4B56-4B28-8F2B-FBCA755D7BD9}"/>
-    <hyperlink ref="B35" r:id="rId31" tooltip="cc://D:\myFMI\3rd year\sem2\SRA\homework\hw3\misc\CaseComplete\SuperPlanner.ucd?REQ-12.5" xr:uid="{8FB884E9-4129-4E86-AF52-74AAD6400D5C}"/>
-    <hyperlink ref="B36" r:id="rId32" tooltip="cc://D:\myFMI\3rd year\sem2\SRA\homework\hw3\misc\CaseComplete\SuperPlanner.ucd?REQ-13" xr:uid="{68C7E9C8-80A4-4532-8AA8-779175FEB158}"/>
-    <hyperlink ref="B37" r:id="rId33" tooltip="cc://D:\myFMI\3rd year\sem2\SRA\homework\hw3\misc\CaseComplete\SuperPlanner.ucd?REQ-13.1" xr:uid="{052F2742-1FE1-475D-B6D4-C05F610812BA}"/>
-    <hyperlink ref="B38" r:id="rId34" tooltip="cc://D:\myFMI\3rd year\sem2\SRA\homework\hw3\misc\CaseComplete\SuperPlanner.ucd?REQ-13.2" xr:uid="{F57BC497-BF15-47EA-AD18-5CEFC5B2F131}"/>
-    <hyperlink ref="B39" r:id="rId35" tooltip="cc://D:\myFMI\3rd year\sem2\SRA\homework\hw3\misc\CaseComplete\SuperPlanner.ucd?REQ-14" xr:uid="{053F2153-825B-4243-A011-79F6D88CB518}"/>
-    <hyperlink ref="B40" r:id="rId36" tooltip="cc://D:\myFMI\3rd year\sem2\SRA\homework\hw3\misc\CaseComplete\SuperPlanner.ucd?REQ-15" xr:uid="{71D8FEBB-6443-47A6-B617-8C0CCFA4A327}"/>
-    <hyperlink ref="B41" r:id="rId37" tooltip="cc://D:\myFMI\3rd year\sem2\SRA\homework\hw3\misc\CaseComplete\SuperPlanner.ucd?REQ-15.1" xr:uid="{BAEBA9EA-ECEA-4838-A605-214DC70C6F0C}"/>
-    <hyperlink ref="B42" r:id="rId38" tooltip="cc://D:\myFMI\3rd year\sem2\SRA\homework\hw3\misc\CaseComplete\SuperPlanner.ucd?REQ-15.2" xr:uid="{DC3E8902-84E3-4D4F-A055-7FCF2994CC74}"/>
-    <hyperlink ref="B43" r:id="rId39" tooltip="cc://D:\myFMI\3rd year\sem2\SRA\homework\hw3\misc\CaseComplete\SuperPlanner.ucd?REQ-15.3" xr:uid="{F1E100F2-7DD9-4359-8BF6-8904260ECDC9}"/>
-    <hyperlink ref="B44" r:id="rId40" tooltip="cc://D:\myFMI\3rd year\sem2\SRA\homework\hw3\misc\CaseComplete\SuperPlanner.ucd?REQ-15.4" xr:uid="{9C8C2A27-526D-45A6-8F36-182D9EBDAE29}"/>
-    <hyperlink ref="B45" r:id="rId41" tooltip="cc://D:\myFMI\3rd year\sem2\SRA\homework\hw3\misc\CaseComplete\SuperPlanner.ucd?REQ-16" xr:uid="{245DF7FA-F208-4B84-877D-A3E679C950E7}"/>
-    <hyperlink ref="B46" r:id="rId42" tooltip="cc://D:\myFMI\3rd year\sem2\SRA\homework\hw3\misc\CaseComplete\SuperPlanner.ucd?REQ-16.1" xr:uid="{80A6F2C0-9458-4187-86C4-53F3C4D179F9}"/>
-    <hyperlink ref="B47" r:id="rId43" tooltip="cc://D:\myFMI\3rd year\sem2\SRA\homework\hw3\misc\CaseComplete\SuperPlanner.ucd?REQ-16.2" xr:uid="{883BDAEF-06BE-4FCE-81F1-A8B5ABC8930D}"/>
-    <hyperlink ref="B48" r:id="rId44" tooltip="cc://D:\myFMI\3rd year\sem2\SRA\homework\hw3\misc\CaseComplete\SuperPlanner.ucd?REQ-17" xr:uid="{354A50A6-A182-4BDF-9BEC-F77E2723DBCB}"/>
-    <hyperlink ref="B49" r:id="rId45" tooltip="cc://D:\myFMI\3rd year\sem2\SRA\homework\hw3\misc\CaseComplete\SuperPlanner.ucd?REQ-17.1" xr:uid="{F3DB5E9E-9AAF-4525-A518-676EF6DEC5D9}"/>
-    <hyperlink ref="B50" r:id="rId46" tooltip="cc://D:\myFMI\3rd year\sem2\SRA\homework\hw3\misc\CaseComplete\SuperPlanner.ucd?REQ-17.2" xr:uid="{04D094AE-4423-4554-A0D8-6319248BBF25}"/>
-    <hyperlink ref="B51" r:id="rId47" tooltip="cc://D:\myFMI\3rd year\sem2\SRA\homework\hw3\misc\CaseComplete\SuperPlanner.ucd?REQ-18" xr:uid="{D5F313B7-2958-412E-BEF2-ADF4876D5FD4}"/>
-    <hyperlink ref="B52" r:id="rId48" tooltip="cc://D:\myFMI\3rd year\sem2\SRA\homework\hw3\misc\CaseComplete\SuperPlanner.ucd?REQ-18.1" xr:uid="{BCDE2D06-CB5B-47C4-8670-92CBF737DD62}"/>
-    <hyperlink ref="B53" r:id="rId49" tooltip="cc://D:\myFMI\3rd year\sem2\SRA\homework\hw3\misc\CaseComplete\SuperPlanner.ucd?REQ-18.2" xr:uid="{C0AD88EC-B08C-469D-A22D-92841DBE8051}"/>
+    <hyperlink ref="B5" r:id="rId1" tooltip="cc://D:\myFMI\3rd year\sem2\SRA\homework\hw3\misc\CaseComplete\SuperPlanner.ucd?REQ-1" xr:uid="{1483A46E-9A1E-447A-808F-3EDE689C6288}"/>
+    <hyperlink ref="B6" r:id="rId2" tooltip="cc://D:\myFMI\3rd year\sem2\SRA\homework\hw3\misc\CaseComplete\SuperPlanner.ucd?REQ-1.1" xr:uid="{F5EA5ABE-0EBD-4AD0-B677-C641731B6C6E}"/>
+    <hyperlink ref="B7" r:id="rId3" tooltip="cc://D:\myFMI\3rd year\sem2\SRA\homework\hw3\misc\CaseComplete\SuperPlanner.ucd?REQ-1.2" xr:uid="{B3A3A51F-9BAC-4905-9297-63F96F3BB976}"/>
+    <hyperlink ref="B8" r:id="rId4" tooltip="cc://D:\myFMI\3rd year\sem2\SRA\homework\hw3\misc\CaseComplete\SuperPlanner.ucd?REQ-2" xr:uid="{60139DE4-6EBF-4476-91B6-45BC72CCA6CA}"/>
+    <hyperlink ref="B9" r:id="rId5" tooltip="cc://D:\myFMI\3rd year\sem2\SRA\homework\hw3\misc\CaseComplete\SuperPlanner.ucd?REQ-2.1" xr:uid="{E4F52B8B-3E99-446A-B347-335E82BED9B3}"/>
+    <hyperlink ref="B10" r:id="rId6" tooltip="cc://D:\myFMI\3rd year\sem2\SRA\homework\hw3\misc\CaseComplete\SuperPlanner.ucd?REQ-2.2" xr:uid="{E9717A4D-4E6E-4C98-9DF7-8003D1961DDF}"/>
+    <hyperlink ref="B11" r:id="rId7" tooltip="cc://D:\myFMI\3rd year\sem2\SRA\homework\hw3\misc\CaseComplete\SuperPlanner.ucd?REQ-3" xr:uid="{67CEB48C-5449-4F46-AD4C-F09A950E7AAF}"/>
+    <hyperlink ref="B12" r:id="rId8" tooltip="cc://D:\myFMI\3rd year\sem2\SRA\homework\hw3\misc\CaseComplete\SuperPlanner.ucd?REQ-4" xr:uid="{1C8AB9B0-2433-4546-8E19-0923E9D515D8}"/>
+    <hyperlink ref="B13" r:id="rId9" tooltip="cc://D:\myFMI\3rd year\sem2\SRA\homework\hw3\misc\CaseComplete\SuperPlanner.ucd?REQ-4.1" xr:uid="{551C4D1C-52D7-4766-921D-38E6141DCAF1}"/>
+    <hyperlink ref="B14" r:id="rId10" tooltip="cc://D:\myFMI\3rd year\sem2\SRA\homework\hw3\misc\CaseComplete\SuperPlanner.ucd?REQ-4.2" xr:uid="{3A519F12-7FC7-4F88-8FF6-278FF2978727}"/>
+    <hyperlink ref="B15" r:id="rId11" tooltip="cc://D:\myFMI\3rd year\sem2\SRA\homework\hw3\misc\CaseComplete\SuperPlanner.ucd?REQ-4.3" xr:uid="{B9CE88CA-75E9-43AC-AEF3-42813B66528A}"/>
+    <hyperlink ref="B16" r:id="rId12" tooltip="cc://D:\myFMI\3rd year\sem2\SRA\homework\hw3\misc\CaseComplete\SuperPlanner.ucd?REQ-4.4" xr:uid="{788CD138-DF49-4910-A821-EED07C757F21}"/>
+    <hyperlink ref="B17" r:id="rId13" tooltip="cc://D:\myFMI\3rd year\sem2\SRA\homework\hw3\misc\CaseComplete\SuperPlanner.ucd?REQ-5" xr:uid="{FC4344E9-869A-48C3-9983-CF49815AED50}"/>
+    <hyperlink ref="B18" r:id="rId14" tooltip="cc://D:\myFMI\3rd year\sem2\SRA\homework\hw3\misc\CaseComplete\SuperPlanner.ucd?REQ-5.1" xr:uid="{57829EB9-905F-48A9-9586-FD6763D03EB4}"/>
+    <hyperlink ref="B19" r:id="rId15" tooltip="cc://D:\myFMI\3rd year\sem2\SRA\homework\hw3\misc\CaseComplete\SuperPlanner.ucd?REQ-5.2" xr:uid="{EC20863E-EAA0-4B5A-A626-36C0BE14B79D}"/>
+    <hyperlink ref="B20" r:id="rId16" tooltip="cc://D:\myFMI\3rd year\sem2\SRA\homework\hw3\misc\CaseComplete\SuperPlanner.ucd?REQ-5.3" xr:uid="{F0105465-A464-4741-B6CF-7F02C227FEE0}"/>
+    <hyperlink ref="B21" r:id="rId17" tooltip="cc://D:\myFMI\3rd year\sem2\SRA\homework\hw3\misc\CaseComplete\SuperPlanner.ucd?REQ-6" xr:uid="{1E8FDB8F-B445-4BCB-AD2B-F252E5448E19}"/>
+    <hyperlink ref="B22" r:id="rId18" tooltip="cc://D:\myFMI\3rd year\sem2\SRA\homework\hw3\misc\CaseComplete\SuperPlanner.ucd?REQ-6.1" xr:uid="{AFC3284A-A2C6-4157-AF05-6FADC32C192D}"/>
+    <hyperlink ref="B23" r:id="rId19" tooltip="cc://D:\myFMI\3rd year\sem2\SRA\homework\hw3\misc\CaseComplete\SuperPlanner.ucd?REQ-7" xr:uid="{A2C5A0DC-8BF3-4667-8502-8A6D4DD1678A}"/>
+    <hyperlink ref="B24" r:id="rId20" tooltip="cc://D:\myFMI\3rd year\sem2\SRA\homework\hw3\misc\CaseComplete\SuperPlanner.ucd?REQ-7.1" xr:uid="{A604A71D-3299-4430-8E3F-C391C2EE9A59}"/>
+    <hyperlink ref="B25" r:id="rId21" tooltip="cc://D:\myFMI\3rd year\sem2\SRA\homework\hw3\misc\CaseComplete\SuperPlanner.ucd?REQ-8" xr:uid="{EE480F13-E0C0-4F10-A862-E0BE53F69FC3}"/>
+    <hyperlink ref="B26" r:id="rId22" tooltip="cc://D:\myFMI\3rd year\sem2\SRA\homework\hw3\misc\CaseComplete\SuperPlanner.ucd?REQ-8.1" xr:uid="{343B464A-1574-4A06-8B22-D42783F1E189}"/>
+    <hyperlink ref="B27" r:id="rId23" tooltip="cc://D:\myFMI\3rd year\sem2\SRA\homework\hw3\misc\CaseComplete\SuperPlanner.ucd?REQ-9" xr:uid="{C40BCBD9-750D-458B-AD12-740F61DFB36C}"/>
+    <hyperlink ref="B28" r:id="rId24" tooltip="cc://D:\myFMI\3rd year\sem2\SRA\homework\hw3\misc\CaseComplete\SuperPlanner.ucd?REQ-10" xr:uid="{B1FDD7F0-45F7-4000-AE77-33314331C332}"/>
+    <hyperlink ref="B29" r:id="rId25" tooltip="cc://D:\myFMI\3rd year\sem2\SRA\homework\hw3\misc\CaseComplete\SuperPlanner.ucd?REQ-11" xr:uid="{2E5CA996-6C23-4539-B688-0BC704968112}"/>
+    <hyperlink ref="B30" r:id="rId26" tooltip="cc://D:\myFMI\3rd year\sem2\SRA\homework\hw3\misc\CaseComplete\SuperPlanner.ucd?REQ-12" xr:uid="{FEEB001C-3744-4E58-BAE0-AD1218B66AC4}"/>
+    <hyperlink ref="B31" r:id="rId27" tooltip="cc://D:\myFMI\3rd year\sem2\SRA\homework\hw3\misc\CaseComplete\SuperPlanner.ucd?REQ-12.1" xr:uid="{1055F163-A8D3-46E3-9523-6B10EAAB3916}"/>
+    <hyperlink ref="B32" r:id="rId28" tooltip="cc://D:\myFMI\3rd year\sem2\SRA\homework\hw3\misc\CaseComplete\SuperPlanner.ucd?REQ-12.2" xr:uid="{F2EE89B2-314E-4FE1-A41E-02970482470B}"/>
+    <hyperlink ref="B33" r:id="rId29" tooltip="cc://D:\myFMI\3rd year\sem2\SRA\homework\hw3\misc\CaseComplete\SuperPlanner.ucd?REQ-12.3" xr:uid="{5A549A50-AB5F-4491-929B-7BCE4265750B}"/>
+    <hyperlink ref="B34" r:id="rId30" tooltip="cc://D:\myFMI\3rd year\sem2\SRA\homework\hw3\misc\CaseComplete\SuperPlanner.ucd?REQ-12.4" xr:uid="{740F3AF0-125C-4F3A-B75C-03D763A40109}"/>
+    <hyperlink ref="B35" r:id="rId31" tooltip="cc://D:\myFMI\3rd year\sem2\SRA\homework\hw3\misc\CaseComplete\SuperPlanner.ucd?REQ-12.5" xr:uid="{C488B1F3-D005-4DE9-99F7-1E765208389B}"/>
+    <hyperlink ref="B36" r:id="rId32" tooltip="cc://D:\myFMI\3rd year\sem2\SRA\homework\hw3\misc\CaseComplete\SuperPlanner.ucd?REQ-13" xr:uid="{8D4B889F-D4E7-4F66-A290-46AFAF1F909B}"/>
+    <hyperlink ref="B37" r:id="rId33" tooltip="cc://D:\myFMI\3rd year\sem2\SRA\homework\hw3\misc\CaseComplete\SuperPlanner.ucd?REQ-13.1" xr:uid="{AB1CA529-10EA-445A-87BB-6945A30BE674}"/>
+    <hyperlink ref="B38" r:id="rId34" tooltip="cc://D:\myFMI\3rd year\sem2\SRA\homework\hw3\misc\CaseComplete\SuperPlanner.ucd?REQ-13.2" xr:uid="{14EF0E58-C601-40FE-A209-909A50B2E278}"/>
+    <hyperlink ref="B39" r:id="rId35" tooltip="cc://D:\myFMI\3rd year\sem2\SRA\homework\hw3\misc\CaseComplete\SuperPlanner.ucd?REQ-13.3" xr:uid="{C0A37762-98AE-41E4-AB94-2D5E7297507C}"/>
+    <hyperlink ref="B40" r:id="rId36" tooltip="cc://D:\myFMI\3rd year\sem2\SRA\homework\hw3\misc\CaseComplete\SuperPlanner.ucd?REQ-14" xr:uid="{8EF34AA6-1808-491B-AF63-B8094C04498F}"/>
+    <hyperlink ref="B41" r:id="rId37" tooltip="cc://D:\myFMI\3rd year\sem2\SRA\homework\hw3\misc\CaseComplete\SuperPlanner.ucd?REQ-15" xr:uid="{639B769B-8D33-46F5-B603-63FEED3C9D1F}"/>
+    <hyperlink ref="B42" r:id="rId38" tooltip="cc://D:\myFMI\3rd year\sem2\SRA\homework\hw3\misc\CaseComplete\SuperPlanner.ucd?REQ-15.1" xr:uid="{45A06002-E5B0-4FEB-8F51-8A588C68E258}"/>
+    <hyperlink ref="B43" r:id="rId39" tooltip="cc://D:\myFMI\3rd year\sem2\SRA\homework\hw3\misc\CaseComplete\SuperPlanner.ucd?REQ-15.2" xr:uid="{5FDAFF4B-9250-4707-BCDF-498AB596D801}"/>
+    <hyperlink ref="B44" r:id="rId40" tooltip="cc://D:\myFMI\3rd year\sem2\SRA\homework\hw3\misc\CaseComplete\SuperPlanner.ucd?REQ-15.3" xr:uid="{5FF38828-177A-4F50-AB99-5A5FBAC2F0A5}"/>
+    <hyperlink ref="B45" r:id="rId41" tooltip="cc://D:\myFMI\3rd year\sem2\SRA\homework\hw3\misc\CaseComplete\SuperPlanner.ucd?REQ-15.4" xr:uid="{17FD4135-E4DB-4633-8E33-4BBBCBCA1C68}"/>
+    <hyperlink ref="B46" r:id="rId42" tooltip="cc://D:\myFMI\3rd year\sem2\SRA\homework\hw3\misc\CaseComplete\SuperPlanner.ucd?REQ-16" xr:uid="{7EAEA6AD-BE8F-41F7-8751-55DF8DB09C7F}"/>
+    <hyperlink ref="B47" r:id="rId43" tooltip="cc://D:\myFMI\3rd year\sem2\SRA\homework\hw3\misc\CaseComplete\SuperPlanner.ucd?REQ-16.1" xr:uid="{3A0487DD-71B4-40FA-9AFA-9B250BEB59A4}"/>
+    <hyperlink ref="B48" r:id="rId44" tooltip="cc://D:\myFMI\3rd year\sem2\SRA\homework\hw3\misc\CaseComplete\SuperPlanner.ucd?REQ-16.2" xr:uid="{1E137C0D-2415-4E0C-9CB0-A9AEE637AC4F}"/>
+    <hyperlink ref="B49" r:id="rId45" tooltip="cc://D:\myFMI\3rd year\sem2\SRA\homework\hw3\misc\CaseComplete\SuperPlanner.ucd?REQ-17" xr:uid="{AD56362B-3416-42C7-BA5C-0B087BB3E6AD}"/>
+    <hyperlink ref="B50" r:id="rId46" tooltip="cc://D:\myFMI\3rd year\sem2\SRA\homework\hw3\misc\CaseComplete\SuperPlanner.ucd?REQ-17.1" xr:uid="{DE67F0F5-5DEB-49DA-8F81-6DD2654D3249}"/>
+    <hyperlink ref="B51" r:id="rId47" tooltip="cc://D:\myFMI\3rd year\sem2\SRA\homework\hw3\misc\CaseComplete\SuperPlanner.ucd?REQ-17.2" xr:uid="{13B531EF-CC00-470C-975D-E7E5364CFA11}"/>
+    <hyperlink ref="B52" r:id="rId48" tooltip="cc://D:\myFMI\3rd year\sem2\SRA\homework\hw3\misc\CaseComplete\SuperPlanner.ucd?REQ-18" xr:uid="{58C53926-4D40-4BE3-9FAC-B2B3EB146036}"/>
+    <hyperlink ref="B53" r:id="rId49" tooltip="cc://D:\myFMI\3rd year\sem2\SRA\homework\hw3\misc\CaseComplete\SuperPlanner.ucd?REQ-18.1" xr:uid="{4CD4C112-B436-478D-99A4-F90E6346DC92}"/>
+    <hyperlink ref="B54" r:id="rId50" tooltip="cc://D:\myFMI\3rd year\sem2\SRA\homework\hw3\misc\CaseComplete\SuperPlanner.ucd?REQ-18.2" xr:uid="{33C70F72-8222-4404-81C3-6E5351A87D63}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="landscape" r:id="rId50"/>
+  <pageSetup orientation="landscape" r:id="rId51"/>
   <headerFooter alignWithMargins="0"/>
-  <drawing r:id="rId51"/>
+  <drawing r:id="rId52"/>
 </worksheet>
 </file>